--- a/빅분기 실기 자료/eduatoz/EduAtoz_빅분기_실기_230604.xlsx
+++ b/빅분기 실기 자료/eduatoz/EduAtoz_빅분기_실기_230604.xlsx
@@ -1,897 +1,1059 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00.Mywork\2023_03_EduAtoZ\05_빅분기_실기\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{670E9950-40DA-4987-9710-5CBD92EFA66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild=""/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="34774" yWindow="1894" windowWidth="22852" windowHeight="14109" xr2:uid="{12D4AE81-0909-4BBD-984F-41507E8280D4}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="빅분기-실기" sheetId="1" r:id="rId1"/>
     <sheet name="통계적-검정" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
   <si>
     <t>파이썬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>객체(object)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이름, 타입(type)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>서식 있는 문자열</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>연산자 - 산술 연산, 비교 연산, 논리 연산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>연산자 활용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>조건 작성 연습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>입력 함수, 형변환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>함수(Function)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Container의 개요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sequence type의 index 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sequence type의 *, + 연산, tuple, list의 특징</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>list의 메서드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>str의 메서드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>set, dict 객체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dict 연산, 메서드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>comprehension</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>함수의 용어, 정의, 형태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>argument의 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>parameter의 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>enumerate, zip 함수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>map 함수, comprehension 연습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>range, lambda 함수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>statement - if, if ~ else</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>if 연습문제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>연습문제 2 (학점 구하기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>for statement 1/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>for statement 2/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>for - 연습문제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>for 활용, break, continue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>모듈 사용 방법(import)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>로또 번호 생성기 만들기 (라이브러리 활용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>while statement, set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>강의번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Pandas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Pandas 소개, Series, DataFrame 구조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>데이터 구조 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>데이터 및 dtype 변경 1/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>데이터 및 dtype 변경 2/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>datatime category의 dtype 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>데이터 정렬로 TOP3, TOP5 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>데이터 검색, boolean indexing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>isin(), str Accessor의 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Series의 통계값 구하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>csv 파일 가져오기, 결측치 확인하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>결측치 처리, df.fillna(값)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DataFrame의 통계값 구하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>컬럼, 행의 추가/삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다양한 데이터 프레임 구조 조작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>맥주 소비량 분석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>그룹별 통계값 구하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>여러 개의 파일 합치기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>index 번호 정리하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>날짜타입으로 변경하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>그래프로 결측치 확인하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>결측치 제거하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>평균을 사용한 결측치 대체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>그룹별 통계 심화 학습(groupby, pivot_table)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>행/열이 많은 csv 읽고 구조 확인하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>문자열 분리(split) - 주소 분리하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>데이터 전처리를 위한 str Accessor 추가 설명, 예제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>결측치 확인/채우기, rename으로 컬럼명 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Series 연산 결과로 변수 생성, DataFrame.apply()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>복잡한 조건의 데이터 추출, 평균비교표 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>폐업비율표 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pandas 통계함수의 특징, 샘플링하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이상치(outlier) 확인 및 해결방법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>데이터 분포 변환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>데이터 스케일링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>데이터 Encoding (범주형 - 수치형)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>데이터 Binning (연속형 - 범주형)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>머신러닝 (분류)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>회귀 분석의 종류, 분류/회귀의 차이점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>분석에 사용할 데이터 생성, 키와 몸무게로 BMI 예측</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이상치를 포함한 데이터 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>회귀 모델링 (Multiple Linear Regression)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>n차항을 포함한 Polynomial Regression</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Ridge, Lasso Regression 모델링 수행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Polynomial Features와 스케일링의 순서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DecisionTree, 앙상블 회귀 모델</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>회귀 모델 - 성능평가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>회귀 모델 모델링 함수 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>웹사이트 방문자 예측 - 데이터 이해, 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>웹사이트 방문자 예측 - 데이터 전처리 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>웹사이트 방문자 예측 - 데이터 전처리 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>웹사이트 방문자 예측 - 모델링, 성능 평가 함수 만들기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>웹사이트 방문자 예측 - 데이터 분리, 모델 적용 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>웹사이트 방문자 예측 - 모델 적용 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>웹사이트 방문자 예측 - 모델 선택 결과 제출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>웹사이트 방문자 예측 - 시험보러 가서는 이렇게 하세요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>보험 예측 - 전처리, 함수 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>보험 예측 - 모델 적용/선택/제출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>보험 예측 - 시험보러 가서는 이렇게 하세요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Machine Learning 사전 학습 1/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Machine Learning 사전 학습 2/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Mini Project - 아들키 예측</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Mini Project - 회귀식, 모델 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>머신러닝 기본 용어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sklearn 의 사용법 1/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sklearn 의 사용법 데이터 분할(train_test_split) 2/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sklearn 의 사용법 - 모델 학습 평가, 예측 3/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sklearn 의 사용법 - GridSearchCV 4/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>분류모델 - 샘플생성 (필수 강의 아님 - 참고)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>분류모델 - 학습 함수 생성 (중요)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>분류모델 - 데이터의 중요성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>분류모델 - 모델링 1/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>분류모델 - 모델링 2/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>분류모델 - 평가, 결과 파일 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고객의 성별 예측 예시문제 풀이 1/6 - 문제 이해, 데이터 가져오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고객의 성별 예측 예시문제 풀이 2/6 - 데이터 전처리 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고객의 성별 예측 예시문제 풀이 3/6 - 데이터 전처리 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고객의 성별 예측 예시문제 풀이 4/6 - 모델링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고객의 성별 예측 예시문제 풀이 5/6 - 제출 데이터 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고객의 성별 예측 예시문제 풀이 6/6 - 시험 환경 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>화물 정시도착, 빅분기 2회 기출문제 풀이 1/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>화물 정시도착, 빅분기 2회 기출문제 풀이 2/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>화물 정시도착, 빅분기 2회 기출문제 풀이 3/3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이항 분류 모델의 성능평가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다향 분류 - 데이터 셋 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다항 분류 - 모델링/평가, 결과 분석 함수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다항 분류 - 학습 데이터 생성, 분류 모델 생성, 오분류표 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다항 분류 - 모델링/여러 가지 모델 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다향 분류 - 성능평가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>통계적 검정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>scipy 모듈 및 확률분포 소개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이산형 확률분포 - 베르누이, 이항분포</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>기하분포그래프, 활용문제 풀이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>초기하분포 이론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>초기하분포 그래프, 활용문제 풀이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>포아송 분포 그래프, 활용문제 풀이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>연속형 확률분포 - 정규분포 이론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>정규분포 그래프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>정규분포 활용문제, 신뢰구간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Student t 분포 이론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Student t 분포 그래프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Student t 분포 활용문제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>지수 분포 활용문제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>감마 분포 이해 그래프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>감마 분포 활용문제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>지수 분포 이해, 그래프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>가설 검정 로드맵 - 모수 추론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>정규성 검정 이론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>정규성 검정 실습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>등분산성 검정 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>등분산성 검정 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>t-test 이론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>One sample t-test 실습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Two sample t-test 실습 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Paired t-test 실습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>분류모델 t-test 활용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>작업3유형 예시문제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ANOVA 실습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ANOVA 사후검정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>가설 검정 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>가설 검정 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>시험유형 One sample t-test 예시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>특강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ANOVA 이해 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ANOVA 이해 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[23년 5월 28일] 작업2유형 준비사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[23년 5월 28일] 분류모델 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[23년 5월 28일] 회귀모델 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[22년10월16일] 시험 안내, 전략</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[22년10월16일] 파이썬의 객체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[22년10월16일] 함수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[22년11월 3일] 판다스 indexing 이해 -1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[22년11월 3일] 판다스 axis 이해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[22년11월 3일] 판다스 indexing 이해 -2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[22년11월 13일] 빅분기 실기 - 단답형, 작업1유형 대비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[22년11월 13일] 빅분기 실기 - 작업2유형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>빅분기실기 관련은 아님 - 불균형데이터 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>날짜 타입 분리, classification_report</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>문자열 분리 (주소, 전화번호)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>변수 관계 통계 검정 (ANOVA, Chi-square)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[22년11월 27일] 빅분기 예시문제 - 작업1유형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[22년11월 27일] 빅분기 예시문제 - 작업2유형 part1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[22년11월 27일] 빅분기 예시문제 - 작업2유형 part2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">[22년11월 27일] 빅분기 회귀문제 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[22년11월 27일] 빅분기 작업1, 2 유형 어떤 것을 다루는 가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[22년11월 27일] 빅분기 기출 4회문제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>비모수 검정의 이해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>카이제곱 검정의 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>카이제곱 적합도 검정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>카이제곱 동질성/독립성 검정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>피셔검정,  카이제곱 독립성 검정 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>분류모델에서의 카이제곱검정 활용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>비모수 1표본, Paired 검정(willcoxon signed rank)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>비모수 독립 2표본 검정 (ranksums, mannwhitneyu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>비모수 독립 K표본 검정(Kruskal Wallis Test)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>분류 모델 - Kruskal Wallis Test 활용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판다스 라이브러리 이해</t>
+  </si>
+  <si>
+    <t>데이터의 변경, 데이터 값 변경</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="30">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
+      <sz val="8.0"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
+      <name val="나눔고딕"/>
       <color rgb="FF002060"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="나눔바른펜"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
       <name val="나눔고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <color rgb="FF002060"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,18 +1061,245 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -929,56 +1318,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - Accent2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - Accent3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - Accent4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - Accent5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - Accent6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - Accent1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - Accent2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - Accent3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - Accent4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - Accent5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - Accent6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - Accent1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - Accent2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - Accent3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - Accent4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - Accent5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - Accent6" xfId="47" builtinId="52"/>
+    <cellStyle name="Accent1" xfId="24" builtinId="29"/>
+    <cellStyle name="Accent2" xfId="28" builtinId="33"/>
+    <cellStyle name="Accent3" xfId="32" builtinId="37"/>
+    <cellStyle name="Accent4" xfId="36" builtinId="41"/>
+    <cellStyle name="Accent5" xfId="40" builtinId="45"/>
+    <cellStyle name="Accent6" xfId="44" builtinId="49"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="17" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="18" builtinId="23"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Explanatory Text" xfId="48" builtinId="53"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="21" builtinId="26"/>
+    <cellStyle name="Heading 1" xfId="11" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="12" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="13" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="14" builtinId="19"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Input" xfId="15" builtinId="20"/>
+    <cellStyle name="Linked Cell" xfId="19" builtinId="24"/>
+    <cellStyle name="Neutral" xfId="23" builtinId="28"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Output" xfId="16" builtinId="21"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="Total" xfId="20" builtinId="25"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -986,36 +1425,30 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2884715</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2889250</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>168727</xdr:rowOff>
+      <xdr:rowOff>170815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4365172</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
+      <xdr:rowOff>27305</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="직사각형 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6231CA0B-DA96-4F16-B2EC-57344A66A314}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
+        <xdr:cNvPr id="1" name="직사각형 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3673929" y="39275656"/>
-          <a:ext cx="1480457" cy="370116"/>
+          <a:off x="14850110" y="7163435"/>
+          <a:ext cx="462915" cy="237490"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:solidFill>
           <a:srgbClr val="C00000"/>
         </a:solidFill>
@@ -1037,70 +1470,107 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" b="1">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:latin typeface="나눔바른펜" panose="020B0503000000000000" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="나눔바른펜" panose="020B0503000000000000" pitchFamily="50" charset="-127"/>
+              <a:latin typeface="나눔바른펜"/>
+              <a:ea typeface="나눔바른펜"/>
             </a:rPr>
-            <a:t>23</a:t>
+            <a:t>23년 6월 5일 추가 </a:t>
           </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="나눔바른펜"/>
+            <a:ea typeface="나눔바른펜"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2884805</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>168910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4364990</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>27305</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4076065" y="7009130"/>
+          <a:ext cx="1480185" cy="239395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" vertOverflow="clip" horzOverflow="clip">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" b="1">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:latin typeface="나눔바른펜" panose="020B0503000000000000" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="나눔바른펜" panose="020B0503000000000000" pitchFamily="50" charset="-127"/>
+              <a:latin typeface="나눔바른펜"/>
+              <a:ea typeface="나눔바른펜"/>
             </a:rPr>
-            <a:t>년 </a:t>
+            <a:t>23년 6월 5일 추가 </a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="나눔바른펜" panose="020B0503000000000000" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="나눔바른펜" panose="020B0503000000000000" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>6</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="나눔바른펜" panose="020B0503000000000000" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="나눔바른펜" panose="020B0503000000000000" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>월 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="나눔바른펜" panose="020B0503000000000000" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="나눔바른펜" panose="020B0503000000000000" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>5</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="나눔바른펜" panose="020B0503000000000000" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="나눔바른펜" panose="020B0503000000000000" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>일 추가 </a:t>
-          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="나눔바른펜"/>
+            <a:ea typeface="나눔바른펜"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1405,38 +1875,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFC491B-4F55-4C2A-B376-D0B6F0F2F143}">
-  <dimension ref="A1:K54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="B1" tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15.000000"/>
   <cols>
-    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.140625" customWidth="1"/>
-    <col min="10" max="10" width="56.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.29071317" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="65.57643018" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="10" width="50.29071317" customWidth="1" outlineLevel="0"/>
+    <col min="14" max="14" width="57.86214338" customWidth="1" outlineLevel="0"/>
+    <col min="18" max="18" width="44.00499998" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:19" ht="27.000000" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="E1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="I1" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="M1" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="Q1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="E1" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="I1" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="6" t="s">
         <v>35</v>
       </c>
@@ -1464,1232 +1946,1773 @@
       <c r="K2" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="M2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4">
-        <v>8.7384259259259255E-3</v>
-      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="E3" s="3">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="G3" s="2">
-        <v>3.6805555555555554E-3</v>
+        <v>0.0140625</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="K3" s="2">
-        <v>1.40625E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>0.00876157407407408</v>
+      </c>
+      <c r="M3" s="7">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="O3" s="10">
+        <v>0.0547569444444445</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1.4155092592592592E-2</v>
-      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="E4" s="3">
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="G4" s="2">
-        <v>1.3599537037037037E-2</v>
+        <v>0.00472222222222222</v>
       </c>
       <c r="I4" s="3">
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="K4" s="2">
-        <v>4.7222222222222223E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>0.00869212962962963</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="O4" s="10">
+        <v>0.0543402777777778</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>2</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4">
-        <v>6.1111111111111114E-3</v>
-      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="E5" s="3">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="G5" s="2">
-        <v>9.1435185185185178E-3</v>
+        <v>0.0133449074074074</v>
       </c>
       <c r="I5" s="3">
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="K5" s="2">
-        <v>1.3344907407407408E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>0.0135185185185185</v>
+      </c>
+      <c r="M5" s="7">
+        <v>3</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="O5" s="10">
+        <v>0.0513194444444444</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>3</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1.6273148148148148E-2</v>
-      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="E6" s="3">
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="G6" s="2">
-        <v>1.6331018518518519E-2</v>
+        <v>0.00475694444444445</v>
       </c>
       <c r="I6" s="3">
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="K6" s="2">
-        <v>4.7569444444444447E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>0.00868055555555556</v>
+      </c>
+      <c r="M6" s="11">
+        <v>4</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="O6" s="13">
+        <v>0.0399768518518519</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>4</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4">
-        <v>6.3773148148148148E-3</v>
-      </c>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="E7" s="3">
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="G7" s="2">
-        <v>1.0289351851851852E-2</v>
+        <v>0.0169560185185185</v>
       </c>
       <c r="I7" s="3">
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="K7" s="2">
-        <v>1.695601851851852E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>0.0169560185185185</v>
+      </c>
+      <c r="M7" s="11">
+        <v>5</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="O7" s="13">
+        <v>0.0390740740740741</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>5</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" s="4"/>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4">
-        <v>3.8541666666666668E-3</v>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.00592592592592593</v>
       </c>
       <c r="E8" s="3">
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="G8" s="2">
-        <v>5.9259259259259256E-3</v>
+        <v>0.013599537037037</v>
       </c>
       <c r="I8" s="3">
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="K8" s="2">
-        <v>1.3599537037037037E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>0.0105439814814815</v>
+      </c>
+      <c r="M8" s="11">
+        <v>6</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="O8" s="13">
+        <v>0.0487962962962963</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>6</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4">
-        <v>4.4675925925925933E-3</v>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.00979166666666667</v>
       </c>
       <c r="E9" s="3">
         <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="G9" s="2">
-        <v>9.7916666666666655E-3</v>
+        <v>0.00998842592592593</v>
       </c>
       <c r="I9" s="3">
         <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="K9" s="2">
-        <v>9.9884259259259266E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>0.00958333333333333</v>
+      </c>
+      <c r="M9" s="11">
+        <v>7</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="O9" s="13">
+        <v>0.0372569444444444</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>7</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4">
-        <v>8.4953703703703701E-3</v>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.00935185185185185</v>
       </c>
       <c r="E10" s="3">
         <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="G10" s="2">
-        <v>9.3518518518518525E-3</v>
-      </c>
-      <c r="I10" s="3">
+        <v>0.00861111111111111</v>
+      </c>
+      <c r="I10" s="11">
         <v>8</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K10" s="2">
-        <v>8.611111111111111E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="J10" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" s="13">
+        <v>0.00835648148148148</v>
+      </c>
+      <c r="M10" s="11">
+        <v>8</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="O10" s="13">
+        <v>0.050162037037037</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>8</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1.0266203703703703E-2</v>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.00853009259259259</v>
       </c>
       <c r="E11" s="3">
         <v>9</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="G11" s="2">
-        <v>8.5300925925925926E-3</v>
-      </c>
-      <c r="I11" s="3">
+        <v>0.0118518518518519</v>
+      </c>
+      <c r="I11" s="11">
         <v>9</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1.1851851851851851E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="J11" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" s="13">
+        <v>0.00921296296296296</v>
+      </c>
+      <c r="M11" s="11">
+        <v>9</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="O11" s="13">
+        <v>0.00606481481481482</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>9</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S11" s="4"/>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1.0289351851851852E-2</v>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.012337962962963</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="G12" s="2">
-        <v>1.2337962962962962E-2</v>
-      </c>
-      <c r="I12" s="3">
+        <v>0.0139699074074074</v>
+      </c>
+      <c r="I12" s="18">
         <v>10</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1.3969907407407408E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="J12" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" s="20">
+        <v>0.00626157407407408</v>
+      </c>
+      <c r="M12" s="11">
+        <v>10</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="O12" s="13">
+        <v>0.033287037037037</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>10</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4">
-        <v>5.8449074074074072E-3</v>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.00637731481481482</v>
       </c>
       <c r="E13" s="3">
         <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="G13" s="2">
-        <v>6.3773148148148148E-3</v>
-      </c>
-      <c r="I13" s="3">
+        <v>0.00653935185185185</v>
+      </c>
+      <c r="I13" s="18">
         <v>11</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K13" s="2">
-        <v>6.5393518518518517E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="J13" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" s="20">
+        <v>0.00631944444444444</v>
+      </c>
+      <c r="M13" s="11">
+        <v>11</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="O13" s="13">
+        <v>0.0496759259259259</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>11</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S13" s="4"/>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4">
-        <v>8.2870370370370372E-3</v>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.00859953703703704</v>
       </c>
       <c r="E14" s="3">
         <v>12</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="G14" s="2">
-        <v>8.5995370370370357E-3</v>
-      </c>
-      <c r="I14" s="3">
+        <v>0.00954861111111111</v>
+      </c>
+      <c r="I14" s="18">
         <v>12</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K14" s="2">
-        <v>9.5486111111111101E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="J14" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" s="20">
+        <v>0.0206828703703704</v>
+      </c>
+      <c r="M14" s="11">
+        <v>12</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="O14" s="13">
+        <v>0.0166435185185185</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>12</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="4"/>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4">
-        <v>9.9768518518518531E-3</v>
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.0123148148148148</v>
       </c>
       <c r="E15" s="3">
         <v>13</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="G15" s="2">
-        <v>1.2314814814814815E-2</v>
-      </c>
-      <c r="I15" s="3">
+        <v>0.0137615740740741</v>
+      </c>
+      <c r="I15" s="18">
         <v>13</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1.3761574074074074E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="J15" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" s="20">
+        <v>0.00958333333333333</v>
+      </c>
+      <c r="M15" s="11">
+        <v>13</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0.00930555555555556</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>13</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="S15" s="4"/>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4">
-        <v>6.4699074074074069E-3</v>
+      <c r="B16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.0166319444444444</v>
       </c>
       <c r="E16" s="3">
         <v>14</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="G16" s="2">
-        <v>1.6631944444444446E-2</v>
-      </c>
-      <c r="I16" s="3">
+        <v>0.0075</v>
+      </c>
+      <c r="I16" s="18">
         <v>14</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K16" s="2">
-        <v>7.5000000000000006E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="J16" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" s="20">
+        <v>0.00667824074074074</v>
+      </c>
+      <c r="M16" s="11">
+        <v>14</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="O16" s="13">
+        <v>0.0102430555555556</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>14</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S16" s="4"/>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4">
-        <v>7.3495370370370372E-3</v>
+      <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.00533564814814815</v>
       </c>
       <c r="E17" s="3">
         <v>15</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="G17" s="2">
-        <v>5.3356481481481484E-3</v>
-      </c>
-      <c r="I17" s="3">
+        <v>0.00672453703703704</v>
+      </c>
+      <c r="I17" s="18">
         <v>15</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K17" s="2">
-        <v>6.7245370370370367E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="J17" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="K17" s="20">
+        <v>0.009375</v>
+      </c>
+      <c r="M17" s="11">
+        <v>15</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="O17" s="13">
+        <v>0.00533564814814815</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>15</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S17" s="4"/>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4">
-        <v>8.1597222222222227E-3</v>
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.0114351851851852</v>
       </c>
       <c r="E18" s="3">
         <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="G18" s="2">
-        <v>1.1435185185185185E-2</v>
-      </c>
-      <c r="I18" s="3">
+        <v>0.00741898148148148</v>
+      </c>
+      <c r="I18" s="18">
         <v>16</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K18" s="2">
-        <v>7.4189814814814813E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="J18" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="K18" s="20">
+        <v>0.00427083333333333</v>
+      </c>
+      <c r="M18" s="11">
+        <v>16</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="O18" s="13">
+        <v>0.0206365740740741</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>16</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S18" s="4"/>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4">
-        <v>8.3796296296296292E-3</v>
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.0104166666666667</v>
       </c>
       <c r="E19" s="3">
         <v>17</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="G19" s="2">
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="I19" s="3">
+        <v>0.0134606481481481</v>
+      </c>
+      <c r="I19" s="18">
         <v>17</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K19" s="2">
-        <v>1.3460648148148147E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="J19" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="K19" s="20">
+        <v>0.0172916666666667</v>
+      </c>
+      <c r="M19" s="11">
+        <v>17</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="O19" s="13">
+        <v>0.0243055555555556</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>17</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S19" s="4"/>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4">
-        <v>6.0879629629629643E-3</v>
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.0103240740740741</v>
       </c>
       <c r="E20" s="3">
         <v>18</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="G20" s="2">
-        <v>1.0324074074074074E-2</v>
-      </c>
-      <c r="I20" s="3">
+        <v>0.0111226851851852</v>
+      </c>
+      <c r="I20" s="18">
         <v>18</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K20" s="2">
-        <v>1.1122685185185185E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="J20" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="K20" s="20">
+        <v>0.006875</v>
+      </c>
+      <c r="M20" s="11">
+        <v>18</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="O20" s="13">
+        <v>0.0550462962962963</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>18</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S20" s="4"/>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4">
-        <v>9.0046296296296298E-3</v>
+      <c r="B21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.0116319444444444</v>
       </c>
       <c r="E21" s="3">
         <v>19</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="G21" s="2">
-        <v>1.1631944444444445E-2</v>
-      </c>
-      <c r="I21" s="3">
+        <v>0.0126273148148148</v>
+      </c>
+      <c r="I21" s="18">
         <v>19</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K21" s="2">
-        <v>1.2627314814814815E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="J21" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="K21" s="20">
+        <v>0.00505787037037037</v>
+      </c>
+      <c r="M21" s="11">
+        <v>19</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="O21" s="13">
+        <v>0.00655092592592593</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>19</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S21" s="4"/>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="4">
-        <v>9.1203703703703707E-3</v>
+      <c r="B22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.0146990740740741</v>
       </c>
       <c r="E22" s="3">
         <v>20</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="G22" s="2">
-        <v>1.4699074074074074E-2</v>
-      </c>
-      <c r="I22" s="3">
+        <v>0.00712962962962963</v>
+      </c>
+      <c r="I22" s="18">
         <v>20</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K22" s="2">
-        <v>7.1296296296296307E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="J22" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="20">
+        <v>0.00530092592592593</v>
+      </c>
+      <c r="M22" s="11">
+        <v>20</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="O22" s="13">
+        <v>0.00581018518518519</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>20</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" s="4"/>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="4">
-        <v>6.851851851851852E-3</v>
+      <c r="B23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.00988425925925926</v>
       </c>
       <c r="E23" s="3">
         <v>21</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="G23" s="2">
-        <v>9.8842592592592576E-3</v>
-      </c>
-      <c r="I23" s="3">
+        <v>0.00710648148148148</v>
+      </c>
+      <c r="I23" s="18">
         <v>21</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K23" s="2">
-        <v>7.106481481481481E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="J23" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="K23" s="20">
+        <v>0.00947916666666667</v>
+      </c>
+      <c r="M23" s="11">
+        <v>21</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="O23" s="13">
+        <v>0.0670717592592593</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>21</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S23" s="4"/>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="4">
-        <v>8.2754629629629619E-3</v>
+      <c r="B24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.0187962962962963</v>
       </c>
       <c r="E24" s="3">
         <v>22</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="G24" s="2">
-        <v>1.8796296296296297E-2</v>
-      </c>
-      <c r="I24" s="3">
+        <v>0.0106018518518519</v>
+      </c>
+      <c r="I24" s="18">
         <v>22</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K24" s="2">
-        <v>1.0601851851851854E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="J24" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="K24" s="20">
+        <v>0.00793981481481482</v>
+      </c>
+      <c r="O24" s="8">
+        <f>SUM(O6:O23)</f>
+        <v>0.525243055555556</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>22</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S24" s="4"/>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="4">
-        <v>1.4143518518518519E-2</v>
+      <c r="B25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.0187731481481482</v>
       </c>
       <c r="E25" s="3">
         <v>23</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="G25" s="2">
-        <v>1.877314814814815E-2</v>
-      </c>
-      <c r="I25" s="3">
+        <v>0.0249884259259259</v>
+      </c>
+      <c r="I25" s="18">
         <v>23</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K25" s="2">
-        <v>2.4988425925925928E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="J25" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="20">
+        <v>0.0127083333333333</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>23</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S25" s="4"/>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="4">
-        <v>6.4236111111111117E-3</v>
+      <c r="B26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.0118865740740741</v>
       </c>
       <c r="E26" s="3">
         <v>24</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="G26" s="2">
-        <v>1.1886574074074075E-2</v>
-      </c>
-      <c r="I26" s="3">
+        <v>0.00957175925925926</v>
+      </c>
+      <c r="I26" s="18">
         <v>24</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K26" s="2">
-        <v>9.571759259259259E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="J26" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="K26" s="20">
+        <v>0.00966435185185185</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>24</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S26" s="4"/>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="4">
-        <v>5.6944444444444438E-3</v>
+      <c r="B27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.0119560185185185</v>
       </c>
       <c r="E27" s="3">
         <v>25</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="G27" s="2">
-        <v>1.1956018518518517E-2</v>
-      </c>
-      <c r="I27" s="3">
+        <v>0.012349537037037</v>
+      </c>
+      <c r="I27" s="18">
         <v>25</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K27" s="2">
-        <v>1.2349537037037039E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="J27" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K27" s="20">
+        <v>0.0116203703703704</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>25</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S27" s="4"/>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="4">
-        <v>5.7060185185185191E-3</v>
+      <c r="B28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.0111342592592593</v>
       </c>
       <c r="E28" s="3">
         <v>26</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="G28" s="2">
-        <v>1.113425925925926E-2</v>
-      </c>
-      <c r="I28" s="3">
+        <v>0.0116666666666667</v>
+      </c>
+      <c r="I28" s="18">
         <v>26</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K28" s="2">
-        <v>1.1666666666666667E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="J28" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="K28" s="20">
+        <v>0.0114699074074074</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>26</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S28" s="4"/>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="4">
-        <v>6.3078703703703708E-3</v>
+      <c r="B29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.0101736111111111</v>
       </c>
       <c r="E29" s="3">
         <v>27</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="G29" s="2">
-        <v>1.0173611111111111E-2</v>
-      </c>
-      <c r="I29" s="3">
+        <v>0.0100578703703704</v>
+      </c>
+      <c r="I29" s="18">
         <v>27</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K29" s="2">
-        <v>1.005787037037037E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="J29" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="K29" s="20">
+        <v>0.0101967592592593</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>27</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S29" s="4"/>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="4">
-        <v>6.4120370370370364E-3</v>
+      <c r="B30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.0193518518518519</v>
       </c>
       <c r="E30" s="3">
         <v>28</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="G30" s="2">
-        <v>1.9351851851851853E-2</v>
-      </c>
-      <c r="I30" s="3">
+        <v>0.0132638888888889</v>
+      </c>
+      <c r="I30" s="18">
         <v>28</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K30" s="2">
-        <v>1.3263888888888889E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="J30" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K30" s="20">
+        <v>0.0144328703703704</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>28</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S30" s="4"/>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="4">
-        <v>5.4398148148148149E-3</v>
+      <c r="B31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.0163773148148148</v>
       </c>
       <c r="E31" s="3">
         <v>29</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="G31" s="2">
-        <v>1.6377314814814813E-2</v>
-      </c>
-      <c r="I31" s="3">
+        <v>0.0149421296296296</v>
+      </c>
+      <c r="I31" s="18">
         <v>29</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K31" s="2">
-        <v>1.494212962962963E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="J31" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="K31" s="20">
+        <v>0.00649305555555556</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>29</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S31" s="4"/>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="4">
-        <v>6.2847222222222228E-3</v>
+      <c r="B32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.011875</v>
       </c>
       <c r="E32" s="3">
         <v>30</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="G32" s="2">
-        <v>1.1875000000000002E-2</v>
-      </c>
-      <c r="I32" s="3">
+        <v>0.00518518518518519</v>
+      </c>
+      <c r="I32" s="18">
         <v>30</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K32" s="2">
-        <v>5.185185185185185E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="J32" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="K32" s="20">
+        <v>0.00626157407407408</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>30</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S32" s="4"/>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="4">
-        <v>3.9236111111111112E-3</v>
+      <c r="B33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.0165740740740741</v>
       </c>
       <c r="E33" s="3">
         <v>31</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G33" s="2">
-        <v>1.6574074074074074E-2</v>
-      </c>
-      <c r="I33" s="3">
+        <v>0.0062037037037037</v>
+      </c>
+      <c r="I33" s="18">
         <v>31</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K33" s="2">
-        <v>6.2037037037037043E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="J33" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="K33" s="20">
+        <v>0.00741898148148148</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>31</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S33" s="4"/>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="4">
-        <v>6.7939814814814816E-3</v>
+      <c r="B34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.013587962962963</v>
       </c>
       <c r="E34" s="3">
         <v>32</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G34" s="2">
-        <v>1.3587962962962963E-2</v>
-      </c>
-      <c r="I34" s="3">
+        <v>0.0102893518518519</v>
+      </c>
+      <c r="I34" s="18">
         <v>32</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K34" s="2">
-        <v>1.0289351851851852E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C35" s="8">
-        <f>SUM(C3:C34)</f>
-        <v>0.24996527777777783</v>
+      <c r="J34" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K34" s="20">
+        <v>0.00777777777777778</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>32</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S34" s="4"/>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.00905092592592593</v>
       </c>
       <c r="E35" s="3">
         <v>33</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G35" s="2">
-        <v>9.0509259259259258E-3</v>
-      </c>
-      <c r="I35" s="3">
+        <v>0.0107638888888889</v>
+      </c>
+      <c r="I35" s="18">
         <v>33</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K35" s="2">
-        <v>1.0763888888888891E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="J35" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="K35" s="20">
+        <v>0.0134722222222222</v>
+      </c>
+      <c r="S35" s="8">
+        <f>SUM(S3:S34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.00530092592592593</v>
+      </c>
       <c r="E36" s="3">
         <v>34</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G36" s="2">
-        <v>5.3009259259259251E-3</v>
-      </c>
-      <c r="I36" s="3">
+        <v>0.0081712962962963</v>
+      </c>
+      <c r="I36" s="18">
         <v>34</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K36" s="2">
-        <v>8.1712962962962963E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="J36" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K36" s="20">
+        <v>0.00554398148148148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.0101157407407407</v>
+      </c>
       <c r="E37" s="3">
         <v>35</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G37" s="2">
-        <v>1.0115740740740741E-2</v>
-      </c>
-      <c r="I37" s="3">
+        <v>0.00886574074074074</v>
+      </c>
+      <c r="I37" s="21">
         <v>35</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>78</v>
+      <c r="J37" s="16" t="s">
+        <v>182</v>
       </c>
       <c r="K37" s="2">
-        <v>8.8657407407407417E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>0.00436342592592593</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.0162037037037037</v>
+      </c>
       <c r="E38" s="3">
         <v>36</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G38" s="2">
-        <v>1.6203703703703703E-2</v>
-      </c>
-      <c r="I38" s="3">
+        <v>0.0108912037037037</v>
+      </c>
+      <c r="I38" s="21">
         <v>36</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>79</v>
+      <c r="J38" s="16" t="s">
+        <v>183</v>
       </c>
       <c r="K38" s="2">
-        <v>1.0891203703703703E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="G39" s="8">
-        <f>SUM(G3:G38)</f>
-        <v>0.41778935185185179</v>
-      </c>
-      <c r="I39" s="3">
+        <v>0.00605324074074074</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="C39" s="8">
+        <f>SUM(C3:C38)</f>
+        <v>0.36474537037037</v>
+      </c>
+      <c r="E39" s="3">
         <v>37</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="G39" s="2">
+        <v>0.00680555555555556</v>
+      </c>
+      <c r="I39" s="21">
+        <v>37</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>184</v>
+      </c>
       <c r="K39" s="2">
-        <v>6.8055555555555569E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="I40" s="3">
+        <v>0.0111921296296296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="E40" s="3">
         <v>38</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="G40" s="2">
+        <v>0.0150347222222222</v>
+      </c>
+      <c r="I40" s="21">
+        <v>38</v>
+      </c>
+      <c r="J40" s="16" t="s">
+        <v>185</v>
+      </c>
       <c r="K40" s="2">
-        <v>1.503472222222222E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="I41" s="3">
+        <v>0.010162037037037</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="E41" s="3">
         <v>39</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="G41" s="2">
+        <v>0.00732638888888889</v>
+      </c>
+      <c r="I41" s="21">
+        <v>39</v>
+      </c>
+      <c r="J41" s="16" t="s">
+        <v>186</v>
+      </c>
       <c r="K41" s="2">
-        <v>7.3263888888888892E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="I42" s="3">
+        <v>0.00586805555555555</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="E42" s="3">
         <v>40</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="G42" s="2">
+        <v>0.0126851851851852</v>
+      </c>
+      <c r="I42" s="21">
+        <v>40</v>
+      </c>
+      <c r="J42" s="16" t="s">
+        <v>187</v>
+      </c>
       <c r="K42" s="2">
-        <v>1.2685185185185183E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="I43" s="3">
+        <v>0.0121412037037037</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="E43" s="3">
         <v>41</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="G43" s="2">
+        <v>0.0129282407407407</v>
+      </c>
+      <c r="I43" s="21">
+        <v>41</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>188</v>
+      </c>
       <c r="K43" s="2">
-        <v>1.292824074074074E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="I44" s="3">
+        <v>0.0130555555555556</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="E44" s="3">
         <v>42</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="G44" s="2">
+        <v>0.0132638888888889</v>
+      </c>
+      <c r="I44" s="21">
+        <v>42</v>
+      </c>
+      <c r="J44" s="16" t="s">
+        <v>189</v>
+      </c>
       <c r="K44" s="2">
-        <v>1.3263888888888889E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="I45" s="3">
+        <v>0.0108912037037037</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="E45" s="3">
         <v>43</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="G45" s="2">
+        <v>0.0103703703703704</v>
+      </c>
+      <c r="I45" s="21">
+        <v>43</v>
+      </c>
+      <c r="J45" s="16" t="s">
+        <v>190</v>
+      </c>
       <c r="K45" s="2">
-        <v>1.037037037037037E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="I46" s="3">
+        <v>0.00538194444444445</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="E46" s="3">
         <v>44</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="G46" s="2">
+        <v>0.0154861111111111</v>
+      </c>
+      <c r="I46" s="21">
+        <v>44</v>
+      </c>
+      <c r="J46" s="16" t="s">
+        <v>191</v>
+      </c>
       <c r="K46" s="2">
-        <v>1.5486111111111112E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="I47" s="3">
+        <v>0.00783564814814815</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="E47" s="3">
         <v>45</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K47" s="2">
-        <v>1.2824074074074073E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="I48" s="3">
+      <c r="G47" s="2">
+        <v>0.0128240740740741</v>
+      </c>
+      <c r="K47" s="8">
+        <f>SUM(K3:K46)</f>
+        <v>0.413425925925926</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="E48" s="3">
         <v>46</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K48" s="2">
-        <v>1.0497685185185186E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="9:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="I49" s="3">
+      <c r="G48" s="2">
+        <v>0.0104976851851852</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7">
+      <c r="E49" s="3">
         <v>47</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K49" s="2">
-        <v>6.4699074074074069E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="9:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="I50" s="3">
+      <c r="G49" s="2">
+        <v>0.00646990740740741</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7">
+      <c r="E50" s="3">
         <v>48</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K50" s="2">
-        <v>5.6828703703703702E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="9:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="I51" s="3">
+      <c r="G50" s="2">
+        <v>0.00568287037037037</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7">
+      <c r="E51" s="3">
         <v>49</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K51" s="2">
-        <v>1.3506944444444445E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="9:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="I52" s="3">
+      <c r="G51" s="2">
+        <v>0.0135069444444444</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7">
+      <c r="E52" s="3">
         <v>50</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K52" s="2">
-        <v>6.7939814814814816E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="9:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="I53" s="3">
+      <c r="G52" s="2">
+        <v>0.00679398148148148</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7">
+      <c r="E53" s="3">
         <v>51</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K53" s="2">
-        <v>1.0972222222222223E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="9:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="K54" s="8">
-        <f>SUM(K3:K53)</f>
-        <v>0.5432638888888891</v>
+      <c r="G53" s="2">
+        <v>0.0109722222222222</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7">
+      <c r="G54" s="8">
+        <f>SUM(G3:G53)</f>
+        <v>0.543263888888889</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4200161C-8E95-4E8F-AD91-6C4BD7CC9CC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B47" sqref="B1:H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15.000000"/>
   <cols>
-    <col min="3" max="3" width="56.7109375" customWidth="1"/>
-    <col min="7" max="7" width="56.7109375" customWidth="1"/>
+    <col min="3" max="3" width="56.71928678" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="56.71928678" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="2:8">
+      <c r="B1" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="2:8">
       <c r="B2" s="6" t="s">
         <v>35</v>
       </c>
@@ -2709,7 +3732,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:8">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -2717,7 +3740,7 @@
         <v>126</v>
       </c>
       <c r="D3" s="2">
-        <v>8.7615740740740744E-3</v>
+        <v>0.00876157407407408</v>
       </c>
       <c r="F3" s="7">
         <v>1</v>
@@ -2726,10 +3749,10 @@
         <v>161</v>
       </c>
       <c r="H3" s="10">
-        <v>5.4756944444444448E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0.0547569444444445</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -2737,7 +3760,7 @@
         <v>127</v>
       </c>
       <c r="D4" s="2">
-        <v>8.6921296296296312E-3</v>
+        <v>0.00869212962962963</v>
       </c>
       <c r="F4" s="7">
         <v>2</v>
@@ -2746,10 +3769,10 @@
         <v>162</v>
       </c>
       <c r="H4" s="10">
-        <v>5.4340277777777779E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0.0543402777777778</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -2757,7 +3780,7 @@
         <v>128</v>
       </c>
       <c r="D5" s="2">
-        <v>1.3518518518518518E-2</v>
+        <v>0.0135185185185185</v>
       </c>
       <c r="F5" s="7">
         <v>3</v>
@@ -2766,10 +3789,10 @@
         <v>163</v>
       </c>
       <c r="H5" s="10">
-        <v>5.1319444444444445E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0.0513194444444444</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -2777,7 +3800,7 @@
         <v>129</v>
       </c>
       <c r="D6" s="2">
-        <v>8.6805555555555559E-3</v>
+        <v>0.00868055555555556</v>
       </c>
       <c r="F6" s="11">
         <v>4</v>
@@ -2786,10 +3809,10 @@
         <v>164</v>
       </c>
       <c r="H6" s="13">
-        <v>3.9976851851851854E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0.0399768518518519</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -2797,7 +3820,7 @@
         <v>130</v>
       </c>
       <c r="D7" s="2">
-        <v>1.695601851851852E-2</v>
+        <v>0.0169560185185185</v>
       </c>
       <c r="F7" s="11">
         <v>5</v>
@@ -2806,10 +3829,10 @@
         <v>165</v>
       </c>
       <c r="H7" s="13">
-        <v>3.9074074074074074E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0.0390740740740741</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -2817,7 +3840,7 @@
         <v>131</v>
       </c>
       <c r="D8" s="2">
-        <v>1.0543981481481481E-2</v>
+        <v>0.0105439814814815</v>
       </c>
       <c r="F8" s="11">
         <v>6</v>
@@ -2826,10 +3849,10 @@
         <v>166</v>
       </c>
       <c r="H8" s="13">
-        <v>4.8796296296296303E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0.0487962962962963</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9" s="3">
         <v>7</v>
       </c>
@@ -2837,7 +3860,7 @@
         <v>132</v>
       </c>
       <c r="D9" s="2">
-        <v>9.5833333333333343E-3</v>
+        <v>0.00958333333333333</v>
       </c>
       <c r="F9" s="11">
         <v>7</v>
@@ -2846,10 +3869,10 @@
         <v>167</v>
       </c>
       <c r="H9" s="13">
-        <v>3.7256944444444447E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0.0372569444444444</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10" s="11">
         <v>8</v>
       </c>
@@ -2857,7 +3880,7 @@
         <v>133</v>
       </c>
       <c r="D10" s="13">
-        <v>8.3564814814814804E-3</v>
+        <v>0.00835648148148148</v>
       </c>
       <c r="F10" s="11">
         <v>8</v>
@@ -2866,10 +3889,10 @@
         <v>169</v>
       </c>
       <c r="H10" s="13">
-        <v>5.0162037037037033E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0.050162037037037</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11" s="11">
         <v>9</v>
       </c>
@@ -2877,7 +3900,7 @@
         <v>134</v>
       </c>
       <c r="D11" s="13">
-        <v>9.2129629629629627E-3</v>
+        <v>0.00921296296296296</v>
       </c>
       <c r="F11" s="11">
         <v>9</v>
@@ -2886,10 +3909,10 @@
         <v>168</v>
       </c>
       <c r="H11" s="13">
-        <v>6.0648148148148145E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0.00606481481481482</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
       <c r="B12" s="7">
         <v>10</v>
       </c>
@@ -2897,7 +3920,7 @@
         <v>135</v>
       </c>
       <c r="D12" s="10">
-        <v>6.2615740740740748E-3</v>
+        <v>0.00626157407407408</v>
       </c>
       <c r="F12" s="11">
         <v>10</v>
@@ -2906,10 +3929,10 @@
         <v>170</v>
       </c>
       <c r="H12" s="13">
-        <v>3.3287037037037039E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0.033287037037037</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
       <c r="B13" s="7">
         <v>11</v>
       </c>
@@ -2917,7 +3940,7 @@
         <v>136</v>
       </c>
       <c r="D13" s="10">
-        <v>6.3194444444444444E-3</v>
+        <v>0.00631944444444444</v>
       </c>
       <c r="F13" s="11">
         <v>11</v>
@@ -2926,10 +3949,10 @@
         <v>171</v>
       </c>
       <c r="H13" s="13">
-        <v>4.9675925925925929E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0.0496759259259259</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
       <c r="B14" s="7">
         <v>12</v>
       </c>
@@ -2937,7 +3960,7 @@
         <v>137</v>
       </c>
       <c r="D14" s="10">
-        <v>2.0682870370370372E-2</v>
+        <v>0.0206828703703704</v>
       </c>
       <c r="F14" s="11">
         <v>12</v>
@@ -2946,10 +3969,10 @@
         <v>173</v>
       </c>
       <c r="H14" s="13">
-        <v>1.6643518518518519E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0.0166435185185185</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
       <c r="B15" s="7">
         <v>13</v>
       </c>
@@ -2957,7 +3980,7 @@
         <v>141</v>
       </c>
       <c r="D15" s="10">
-        <v>9.5833333333333343E-3</v>
+        <v>0.00958333333333333</v>
       </c>
       <c r="F15" s="11">
         <v>13</v>
@@ -2966,10 +3989,10 @@
         <v>174</v>
       </c>
       <c r="H15" s="13">
-        <v>9.3055555555555548E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0.00930555555555556</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16" s="7">
         <v>14</v>
       </c>
@@ -2977,7 +4000,7 @@
         <v>138</v>
       </c>
       <c r="D16" s="10">
-        <v>6.6782407407407415E-3</v>
+        <v>0.00667824074074074</v>
       </c>
       <c r="F16" s="11">
         <v>14</v>
@@ -2986,10 +4009,10 @@
         <v>172</v>
       </c>
       <c r="H16" s="13">
-        <v>1.0243055555555556E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0.0102430555555556</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17" s="7">
         <v>15</v>
       </c>
@@ -2997,7 +4020,7 @@
         <v>139</v>
       </c>
       <c r="D17" s="10">
-        <v>9.3749999999999997E-3</v>
+        <v>0.009375</v>
       </c>
       <c r="F17" s="11">
         <v>15</v>
@@ -3006,10 +4029,10 @@
         <v>175</v>
       </c>
       <c r="H17" s="13">
-        <v>5.3356481481481484E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0.00533564814814815</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18" s="7">
         <v>16</v>
       </c>
@@ -3017,7 +4040,7 @@
         <v>140</v>
       </c>
       <c r="D18" s="10">
-        <v>4.2708333333333339E-3</v>
+        <v>0.00427083333333333</v>
       </c>
       <c r="F18" s="11">
         <v>16</v>
@@ -3026,10 +4049,10 @@
         <v>176</v>
       </c>
       <c r="H18" s="13">
-        <v>2.0636574074074075E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0.0206365740740741</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19" s="7">
         <v>17</v>
       </c>
@@ -3037,7 +4060,7 @@
         <v>155</v>
       </c>
       <c r="D19" s="10">
-        <v>1.7291666666666667E-2</v>
+        <v>0.0172916666666667</v>
       </c>
       <c r="F19" s="11">
         <v>17</v>
@@ -3046,10 +4069,10 @@
         <v>177</v>
       </c>
       <c r="H19" s="13">
-        <v>2.4305555555555556E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0.0243055555555556</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
       <c r="B20" s="7">
         <v>18</v>
       </c>
@@ -3057,7 +4080,7 @@
         <v>156</v>
       </c>
       <c r="D20" s="10">
-        <v>6.875E-3</v>
+        <v>0.006875</v>
       </c>
       <c r="F20" s="11">
         <v>18</v>
@@ -3066,10 +4089,10 @@
         <v>178</v>
       </c>
       <c r="H20" s="13">
-        <v>5.5046296296296295E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0.0550462962962963</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
       <c r="B21" s="7">
         <v>19</v>
       </c>
@@ -3077,7 +4100,7 @@
         <v>142</v>
       </c>
       <c r="D21" s="10">
-        <v>5.0578703703703706E-3</v>
+        <v>0.00505787037037037</v>
       </c>
       <c r="F21" s="11">
         <v>19</v>
@@ -3086,10 +4109,10 @@
         <v>179</v>
       </c>
       <c r="H21" s="13">
-        <v>6.5509259259259262E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0.00655092592592593</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
       <c r="B22" s="7">
         <v>20</v>
       </c>
@@ -3097,7 +4120,7 @@
         <v>143</v>
       </c>
       <c r="D22" s="10">
-        <v>5.3009259259259251E-3</v>
+        <v>0.00530092592592593</v>
       </c>
       <c r="F22" s="11">
         <v>20</v>
@@ -3106,10 +4129,10 @@
         <v>180</v>
       </c>
       <c r="H22" s="13">
-        <v>5.8101851851851856E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0.00581018518518519</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
       <c r="B23" s="7">
         <v>21</v>
       </c>
@@ -3117,7 +4140,7 @@
         <v>144</v>
       </c>
       <c r="D23" s="10">
-        <v>9.479166666666667E-3</v>
+        <v>0.00947916666666667</v>
       </c>
       <c r="F23" s="11">
         <v>21</v>
@@ -3126,10 +4149,10 @@
         <v>181</v>
       </c>
       <c r="H23" s="13">
-        <v>6.7071759259259262E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0.0670717592592593</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
       <c r="B24" s="7">
         <v>22</v>
       </c>
@@ -3137,14 +4160,14 @@
         <v>145</v>
       </c>
       <c r="D24" s="10">
-        <v>7.9398148148148145E-3</v>
+        <v>0.00793981481481482</v>
       </c>
       <c r="H24" s="8">
         <f>SUM(H6:H23)</f>
-        <v>0.52524305555555562</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0.525243055555556</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
       <c r="B25" s="7">
         <v>23</v>
       </c>
@@ -3152,10 +4175,10 @@
         <v>146</v>
       </c>
       <c r="D25" s="10">
-        <v>1.2708333333333334E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0.0127083333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
       <c r="B26" s="7">
         <v>24</v>
       </c>
@@ -3163,10 +4186,10 @@
         <v>147</v>
       </c>
       <c r="D26" s="10">
-        <v>9.6643518518518511E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0.00966435185185185</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
       <c r="B27" s="7">
         <v>25</v>
       </c>
@@ -3174,10 +4197,10 @@
         <v>148</v>
       </c>
       <c r="D27" s="10">
-        <v>1.1620370370370371E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0.0116203703703704</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
       <c r="B28" s="7">
         <v>26</v>
       </c>
@@ -3185,10 +4208,10 @@
         <v>149</v>
       </c>
       <c r="D28" s="10">
-        <v>1.1469907407407408E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0.0114699074074074</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
       <c r="B29" s="7">
         <v>27</v>
       </c>
@@ -3196,10 +4219,10 @@
         <v>150</v>
       </c>
       <c r="D29" s="10">
-        <v>1.019675925925926E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0.0101967592592593</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
       <c r="B30" s="7">
         <v>28</v>
       </c>
@@ -3207,10 +4230,10 @@
         <v>151</v>
       </c>
       <c r="D30" s="10">
-        <v>1.4432870370370372E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0.0144328703703704</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
       <c r="B31" s="7">
         <v>29</v>
       </c>
@@ -3218,10 +4241,10 @@
         <v>157</v>
       </c>
       <c r="D31" s="10">
-        <v>6.4930555555555549E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0.00649305555555556</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
       <c r="B32" s="7">
         <v>30</v>
       </c>
@@ -3229,10 +4252,10 @@
         <v>152</v>
       </c>
       <c r="D32" s="10">
-        <v>6.2615740740740748E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+        <v>0.00626157407407408</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
       <c r="B33" s="7">
         <v>31</v>
       </c>
@@ -3240,10 +4263,10 @@
         <v>159</v>
       </c>
       <c r="D33" s="10">
-        <v>7.4189814814814813E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+        <v>0.00741898148148148</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
       <c r="B34" s="7">
         <v>32</v>
       </c>
@@ -3251,10 +4274,10 @@
         <v>160</v>
       </c>
       <c r="D34" s="10">
-        <v>7.7777777777777767E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+        <v>0.00777777777777778</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
       <c r="B35" s="7">
         <v>33</v>
       </c>
@@ -3262,10 +4285,10 @@
         <v>153</v>
       </c>
       <c r="D35" s="10">
-        <v>1.3472222222222221E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+        <v>0.0134722222222222</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
       <c r="B36" s="7">
         <v>34</v>
       </c>
@@ -3273,123 +4296,123 @@
         <v>154</v>
       </c>
       <c r="D36" s="10">
-        <v>5.5439814814814822E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="16">
+        <v>0.00554398148148148</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="15">
         <v>35</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="16" t="s">
         <v>182</v>
       </c>
       <c r="D37" s="2">
-        <v>4.363425925925926E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="16">
+        <v>0.00436342592592593</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="15">
         <v>36</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="16" t="s">
         <v>183</v>
       </c>
       <c r="D38" s="2">
-        <v>6.053240740740741E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="16">
+        <v>0.00605324074074074</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="15">
         <v>37</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="16" t="s">
         <v>184</v>
       </c>
       <c r="D39" s="2">
-        <v>1.119212962962963E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="16">
+        <v>0.0111921296296296</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="15">
         <v>38</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="16" t="s">
         <v>185</v>
       </c>
       <c r="D40" s="2">
-        <v>1.0162037037037037E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="16">
+        <v>0.010162037037037</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="15">
         <v>39</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="16" t="s">
         <v>186</v>
       </c>
       <c r="D41" s="2">
-        <v>5.8680555555555543E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="16">
+        <v>0.00586805555555555</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="15">
         <v>40</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="16" t="s">
         <v>187</v>
       </c>
       <c r="D42" s="2">
-        <v>1.2141203703703704E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="16">
+        <v>0.0121412037037037</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="15">
         <v>41</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="16" t="s">
         <v>188</v>
       </c>
       <c r="D43" s="2">
-        <v>1.3055555555555556E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="16">
+        <v>0.0130555555555556</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="15">
         <v>42</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="16" t="s">
         <v>189</v>
       </c>
       <c r="D44" s="2">
-        <v>1.0891203703703703E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="16">
+        <v>0.0108912037037037</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="15">
         <v>43</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="16" t="s">
         <v>190</v>
       </c>
       <c r="D45" s="2">
-        <v>5.3819444444444453E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="16">
+        <v>0.00538194444444445</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="15">
         <v>44</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="16" t="s">
         <v>191</v>
       </c>
       <c r="D46" s="2">
-        <v>7.8356481481481489E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+        <v>0.00783564814814815</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
       <c r="D47" s="8">
         <f>SUM(D3:D46)</f>
-        <v>0.41342592592592597</v>
+        <v>0.413425925925926</v>
       </c>
     </row>
   </sheetData>
@@ -3398,7 +4421,8 @@
     <mergeCell ref="F1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/빅분기 실기 자료/eduatoz/EduAtoz_빅분기_실기_230604.xlsx
+++ b/빅분기 실기 자료/eduatoz/EduAtoz_빅분기_실기_230604.xlsx
@@ -718,13 +718,6 @@
       <color rgb="FFFA7D00"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
       <sz val="11.0"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -749,12 +742,6 @@
       <color theme="0"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
       <i/>
       <sz val="11.0"/>
       <name val="Calibri"/>
@@ -762,23 +749,10 @@
       <color rgb="FF7F7F7F"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="11.0"/>
       <name val="나눔바른펜"/>
       <color theme="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
       <b/>
@@ -797,8 +771,33 @@
       <name val="나눔고딕"/>
       <color rgb="FF002060"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="나눔바른펜"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="0"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -966,12 +965,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
@@ -1008,7 +1001,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1055,7 +1060,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1064,7 +1068,6 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1073,7 +1076,6 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1082,7 +1084,6 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1097,7 +1098,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1112,7 +1112,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -1127,7 +1126,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1136,7 +1134,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1147,7 +1144,6 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1211,91 +1207,91 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1351,19 +1347,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1445,8 +1441,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14850110" y="7163435"/>
-          <a:ext cx="462915" cy="237490"/>
+          <a:off x="14853284" y="7163435"/>
+          <a:ext cx="463551" cy="237490"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:solidFill>
@@ -1878,8 +1874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
@@ -1976,7 +1972,7 @@
       <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="19" t="s">
         <v>95</v>
       </c>
       <c r="G3" s="2">
@@ -2019,7 +2015,7 @@
       <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="19" t="s">
         <v>96</v>
       </c>
       <c r="G4" s="2">
@@ -2062,7 +2058,7 @@
       <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="19" t="s">
         <v>97</v>
       </c>
       <c r="G5" s="2">
@@ -2105,7 +2101,7 @@
       <c r="E6" s="3">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="19" t="s">
         <v>98</v>
       </c>
       <c r="G6" s="2">
@@ -2148,7 +2144,7 @@
       <c r="E7" s="3">
         <v>5</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="19" t="s">
         <v>99</v>
       </c>
       <c r="G7" s="2">
@@ -2187,13 +2183,11 @@
       <c r="B8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="2">
-        <v>0.00592592592592593</v>
-      </c>
+      <c r="C8" s="2"/>
       <c r="E8" s="3">
         <v>6</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="19" t="s">
         <v>100</v>
       </c>
       <c r="G8" s="2">
@@ -2232,13 +2226,11 @@
       <c r="B9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="2">
-        <v>0.00979166666666667</v>
-      </c>
+      <c r="C9" s="2"/>
       <c r="E9" s="3">
         <v>7</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="19" t="s">
         <v>101</v>
       </c>
       <c r="G9" s="2">
@@ -2277,13 +2269,11 @@
       <c r="B10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="2">
-        <v>0.00935185185185185</v>
-      </c>
+      <c r="C10" s="2"/>
       <c r="E10" s="3">
         <v>8</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="19" t="s">
         <v>102</v>
       </c>
       <c r="G10" s="2">
@@ -2322,13 +2312,11 @@
       <c r="B11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="2">
-        <v>0.00853009259259259</v>
-      </c>
+      <c r="C11" s="2"/>
       <c r="E11" s="3">
         <v>9</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="19" t="s">
         <v>103</v>
       </c>
       <c r="G11" s="2">
@@ -2367,25 +2355,23 @@
       <c r="B12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="2">
-        <v>0.012337962962963</v>
-      </c>
+      <c r="C12" s="2"/>
       <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="19" t="s">
         <v>104</v>
       </c>
       <c r="G12" s="2">
         <v>0.0139699074074074</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="11">
         <v>10</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="13">
         <v>0.00626157407407408</v>
       </c>
       <c r="M12" s="11">
@@ -2412,25 +2398,23 @@
       <c r="B13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="2">
-        <v>0.00637731481481482</v>
-      </c>
+      <c r="C13" s="2"/>
       <c r="E13" s="3">
         <v>11</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="19" t="s">
         <v>105</v>
       </c>
       <c r="G13" s="2">
         <v>0.00653935185185185</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="11">
         <v>11</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="J13" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13" s="13">
         <v>0.00631944444444444</v>
       </c>
       <c r="M13" s="11">
@@ -2457,25 +2441,23 @@
       <c r="B14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="2">
-        <v>0.00859953703703704</v>
-      </c>
+      <c r="C14" s="2"/>
       <c r="E14" s="3">
         <v>12</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="19" t="s">
         <v>106</v>
       </c>
       <c r="G14" s="2">
         <v>0.00954861111111111</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="11">
         <v>12</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="13">
         <v>0.0206828703703704</v>
       </c>
       <c r="M14" s="11">
@@ -2502,25 +2484,23 @@
       <c r="B15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="2">
-        <v>0.0123148148148148</v>
-      </c>
+      <c r="C15" s="2"/>
       <c r="E15" s="3">
         <v>13</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="19" t="s">
         <v>107</v>
       </c>
       <c r="G15" s="2">
         <v>0.0137615740740741</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="11">
         <v>13</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="13">
         <v>0.00958333333333333</v>
       </c>
       <c r="M15" s="11">
@@ -2553,19 +2533,19 @@
       <c r="E16" s="3">
         <v>14</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="19" t="s">
         <v>108</v>
       </c>
       <c r="G16" s="2">
         <v>0.0075</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="11">
         <v>14</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16" s="13">
         <v>0.00667824074074074</v>
       </c>
       <c r="M16" s="11">
@@ -2598,19 +2578,19 @@
       <c r="E17" s="3">
         <v>15</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="19" t="s">
         <v>109</v>
       </c>
       <c r="G17" s="2">
         <v>0.00672453703703704</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="11">
         <v>15</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17" s="13">
         <v>0.009375</v>
       </c>
       <c r="M17" s="11">
@@ -2649,13 +2629,13 @@
       <c r="G18" s="2">
         <v>0.00741898148148148</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="11">
         <v>16</v>
       </c>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18" s="13">
         <v>0.00427083333333333</v>
       </c>
       <c r="M18" s="11">
@@ -2694,13 +2674,13 @@
       <c r="G19" s="2">
         <v>0.0134606481481481</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="11">
         <v>17</v>
       </c>
-      <c r="J19" s="19" t="s">
+      <c r="J19" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K19" s="13">
         <v>0.0172916666666667</v>
       </c>
       <c r="M19" s="11">
@@ -2739,13 +2719,13 @@
       <c r="G20" s="2">
         <v>0.0111226851851852</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="11">
         <v>18</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="13">
         <v>0.006875</v>
       </c>
       <c r="M20" s="11">
@@ -2784,13 +2764,13 @@
       <c r="G21" s="2">
         <v>0.0126273148148148</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="11">
         <v>19</v>
       </c>
-      <c r="J21" s="19" t="s">
+      <c r="J21" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="K21" s="20">
+      <c r="K21" s="13">
         <v>0.00505787037037037</v>
       </c>
       <c r="M21" s="11">
@@ -2829,13 +2809,13 @@
       <c r="G22" s="2">
         <v>0.00712962962962963</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="11">
         <v>20</v>
       </c>
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K22" s="13">
         <v>0.00530092592592593</v>
       </c>
       <c r="M22" s="11">
@@ -2874,13 +2854,13 @@
       <c r="G23" s="2">
         <v>0.00710648148148148</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="11">
         <v>21</v>
       </c>
-      <c r="J23" s="19" t="s">
+      <c r="J23" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="K23" s="20">
+      <c r="K23" s="13">
         <v>0.00947916666666667</v>
       </c>
       <c r="M23" s="11">
@@ -2913,19 +2893,19 @@
       <c r="E24" s="3">
         <v>22</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="19" t="s">
         <v>116</v>
       </c>
       <c r="G24" s="2">
         <v>0.0106018518518519</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="11">
         <v>22</v>
       </c>
-      <c r="J24" s="19" t="s">
+      <c r="J24" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="K24" s="20">
+      <c r="K24" s="13">
         <v>0.00793981481481482</v>
       </c>
       <c r="O24" s="8">
@@ -2953,19 +2933,19 @@
       <c r="E25" s="3">
         <v>23</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="19" t="s">
         <v>117</v>
       </c>
       <c r="G25" s="2">
         <v>0.0249884259259259</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="11">
         <v>23</v>
       </c>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="K25" s="20">
+      <c r="K25" s="13">
         <v>0.0127083333333333</v>
       </c>
       <c r="Q25" s="3">
@@ -2989,19 +2969,19 @@
       <c r="E26" s="3">
         <v>24</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="19" t="s">
         <v>118</v>
       </c>
       <c r="G26" s="2">
         <v>0.00957175925925926</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="11">
         <v>24</v>
       </c>
-      <c r="J26" s="19" t="s">
+      <c r="J26" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26" s="13">
         <v>0.00966435185185185</v>
       </c>
       <c r="Q26" s="3">
@@ -3025,19 +3005,19 @@
       <c r="E27" s="3">
         <v>25</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="19" t="s">
         <v>119</v>
       </c>
       <c r="G27" s="2">
         <v>0.012349537037037</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="11">
         <v>25</v>
       </c>
-      <c r="J27" s="19" t="s">
+      <c r="J27" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="K27" s="20">
+      <c r="K27" s="13">
         <v>0.0116203703703704</v>
       </c>
       <c r="Q27" s="3">
@@ -3067,13 +3047,13 @@
       <c r="G28" s="2">
         <v>0.0116666666666667</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="11">
         <v>26</v>
       </c>
-      <c r="J28" s="19" t="s">
+      <c r="J28" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="K28" s="20">
+      <c r="K28" s="13">
         <v>0.0114699074074074</v>
       </c>
       <c r="Q28" s="3">
@@ -3103,13 +3083,13 @@
       <c r="G29" s="2">
         <v>0.0100578703703704</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="11">
         <v>27</v>
       </c>
-      <c r="J29" s="19" t="s">
+      <c r="J29" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="K29" s="20">
+      <c r="K29" s="13">
         <v>0.0101967592592593</v>
       </c>
       <c r="Q29" s="3">
@@ -3139,13 +3119,13 @@
       <c r="G30" s="2">
         <v>0.0132638888888889</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I30" s="11">
         <v>28</v>
       </c>
-      <c r="J30" s="19" t="s">
+      <c r="J30" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="K30" s="20">
+      <c r="K30" s="13">
         <v>0.0144328703703704</v>
       </c>
       <c r="Q30" s="3">
@@ -3175,13 +3155,13 @@
       <c r="G31" s="2">
         <v>0.0149421296296296</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I31" s="11">
         <v>29</v>
       </c>
-      <c r="J31" s="19" t="s">
+      <c r="J31" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="K31" s="20">
+      <c r="K31" s="13">
         <v>0.00649305555555556</v>
       </c>
       <c r="Q31" s="3">
@@ -3211,13 +3191,13 @@
       <c r="G32" s="2">
         <v>0.00518518518518519</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I32" s="11">
         <v>30</v>
       </c>
-      <c r="J32" s="19" t="s">
+      <c r="J32" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="K32" s="20">
+      <c r="K32" s="13">
         <v>0.00626157407407408</v>
       </c>
       <c r="Q32" s="3">
@@ -3241,19 +3221,19 @@
       <c r="E33" s="3">
         <v>31</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="20" t="s">
         <v>74</v>
       </c>
       <c r="G33" s="2">
         <v>0.0062037037037037</v>
       </c>
-      <c r="I33" s="18">
+      <c r="I33" s="11">
         <v>31</v>
       </c>
-      <c r="J33" s="19" t="s">
+      <c r="J33" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="K33" s="20">
+      <c r="K33" s="13">
         <v>0.00741898148148148</v>
       </c>
       <c r="Q33" s="3">
@@ -3277,19 +3257,19 @@
       <c r="E34" s="3">
         <v>32</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="20" t="s">
         <v>75</v>
       </c>
       <c r="G34" s="2">
         <v>0.0102893518518519</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="11">
         <v>32</v>
       </c>
-      <c r="J34" s="19" t="s">
+      <c r="J34" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="K34" s="20">
+      <c r="K34" s="13">
         <v>0.00777777777777778</v>
       </c>
       <c r="Q34" s="3">
@@ -3313,19 +3293,19 @@
       <c r="E35" s="3">
         <v>33</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="20" t="s">
         <v>76</v>
       </c>
       <c r="G35" s="2">
         <v>0.0107638888888889</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I35" s="11">
         <v>33</v>
       </c>
-      <c r="J35" s="19" t="s">
+      <c r="J35" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="K35" s="20">
+      <c r="K35" s="13">
         <v>0.0134722222222222</v>
       </c>
       <c r="S35" s="8">
@@ -3346,19 +3326,19 @@
       <c r="E36" s="3">
         <v>34</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="20" t="s">
         <v>77</v>
       </c>
       <c r="G36" s="2">
         <v>0.0081712962962963</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="11">
         <v>34</v>
       </c>
-      <c r="J36" s="19" t="s">
+      <c r="J36" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="K36" s="20">
+      <c r="K36" s="13">
         <v>0.00554398148148148</v>
       </c>
     </row>
@@ -3375,7 +3355,7 @@
       <c r="E37" s="3">
         <v>35</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="20" t="s">
         <v>78</v>
       </c>
       <c r="G37" s="2">
@@ -3404,7 +3384,7 @@
       <c r="E38" s="3">
         <v>36</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="20" t="s">
         <v>79</v>
       </c>
       <c r="G38" s="2">
@@ -3423,12 +3403,12 @@
     <row r="39" spans="1:19">
       <c r="C39" s="8">
         <f>SUM(C3:C38)</f>
-        <v>0.36474537037037</v>
+        <v>0.291516203703704</v>
       </c>
       <c r="E39" s="3">
         <v>37</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="20" t="s">
         <v>80</v>
       </c>
       <c r="G39" s="2">
@@ -3448,7 +3428,7 @@
       <c r="E40" s="3">
         <v>38</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="20" t="s">
         <v>81</v>
       </c>
       <c r="G40" s="2">
@@ -3468,7 +3448,7 @@
       <c r="E41" s="3">
         <v>39</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="20" t="s">
         <v>82</v>
       </c>
       <c r="G41" s="2">
@@ -3488,7 +3468,7 @@
       <c r="E42" s="3">
         <v>40</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="20" t="s">
         <v>83</v>
       </c>
       <c r="G42" s="2">
@@ -3636,7 +3616,7 @@
       <c r="E51" s="3">
         <v>49</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="20" t="s">
         <v>92</v>
       </c>
       <c r="G51" s="2">
@@ -3647,7 +3627,7 @@
       <c r="E52" s="3">
         <v>50</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="20" t="s">
         <v>93</v>
       </c>
       <c r="G52" s="2">
@@ -3658,7 +3638,7 @@
       <c r="E53" s="3">
         <v>51</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="20" t="s">
         <v>94</v>
       </c>
       <c r="G53" s="2">

--- a/빅분기 실기 자료/eduatoz/EduAtoz_빅분기_실기_230604.xlsx
+++ b/빅분기 실기 자료/eduatoz/EduAtoz_빅분기_실기_230604.xlsx
@@ -605,7 +605,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="30">
+  <fonts count="34">
     <font>
       <sz val="11.0"/>
       <name val="Calibri"/>
@@ -796,8 +796,32 @@
       <name val="맑은 고딕"/>
       <color theme="0"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="9" tint="0.799980"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="9" tint="0.799980"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1001,12 +1025,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
@@ -1014,6 +1032,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2F0D9"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1295,7 +1337,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1353,14 +1395,38 @@
     <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1874,8 +1940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
@@ -1981,7 +2047,7 @@
       <c r="I3" s="3">
         <v>1</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="24" t="s">
         <v>126</v>
       </c>
       <c r="K3" s="2">
@@ -2024,7 +2090,7 @@
       <c r="I4" s="3">
         <v>2</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="24" t="s">
         <v>127</v>
       </c>
       <c r="K4" s="2">
@@ -2067,7 +2133,7 @@
       <c r="I5" s="3">
         <v>3</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="24" t="s">
         <v>128</v>
       </c>
       <c r="K5" s="2">
@@ -2110,7 +2176,7 @@
       <c r="I6" s="3">
         <v>4</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="24" t="s">
         <v>129</v>
       </c>
       <c r="K6" s="2">
@@ -2153,7 +2219,7 @@
       <c r="I7" s="3">
         <v>5</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="24" t="s">
         <v>130</v>
       </c>
       <c r="K7" s="2">
@@ -2196,7 +2262,7 @@
       <c r="I8" s="3">
         <v>6</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="24" t="s">
         <v>131</v>
       </c>
       <c r="K8" s="2">
@@ -2239,7 +2305,7 @@
       <c r="I9" s="3">
         <v>7</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="24" t="s">
         <v>132</v>
       </c>
       <c r="K9" s="2">
@@ -2282,7 +2348,7 @@
       <c r="I10" s="11">
         <v>8</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="25" t="s">
         <v>133</v>
       </c>
       <c r="K10" s="13">
@@ -2325,7 +2391,7 @@
       <c r="I11" s="11">
         <v>9</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="25" t="s">
         <v>134</v>
       </c>
       <c r="K11" s="13">
@@ -2352,7 +2418,7 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="28" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="2"/>
@@ -2395,7 +2461,7 @@
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="28" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="2"/>
@@ -2438,7 +2504,7 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="28" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="2"/>
@@ -2481,7 +2547,7 @@
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="28" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="2"/>
@@ -2524,12 +2590,10 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="2">
-        <v>0.0166319444444444</v>
-      </c>
+      <c r="C16" s="2"/>
       <c r="E16" s="3">
         <v>14</v>
       </c>
@@ -2569,12 +2633,10 @@
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="2">
-        <v>0.00533564814814815</v>
-      </c>
+      <c r="C17" s="2"/>
       <c r="E17" s="3">
         <v>15</v>
       </c>
@@ -2614,12 +2676,10 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="2">
-        <v>0.0114351851851852</v>
-      </c>
+      <c r="C18" s="2"/>
       <c r="E18" s="3">
         <v>16</v>
       </c>
@@ -2662,9 +2722,7 @@
       <c r="B19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="2">
-        <v>0.0104166666666667</v>
-      </c>
+      <c r="C19" s="2"/>
       <c r="E19" s="3">
         <v>17</v>
       </c>
@@ -2707,9 +2765,7 @@
       <c r="B20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="2">
-        <v>0.0103240740740741</v>
-      </c>
+      <c r="C20" s="2"/>
       <c r="E20" s="3">
         <v>18</v>
       </c>
@@ -2752,9 +2808,7 @@
       <c r="B21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="2">
-        <v>0.0116319444444444</v>
-      </c>
+      <c r="C21" s="2"/>
       <c r="E21" s="3">
         <v>19</v>
       </c>
@@ -2797,9 +2851,7 @@
       <c r="B22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="2">
-        <v>0.0146990740740741</v>
-      </c>
+      <c r="C22" s="2"/>
       <c r="E22" s="3">
         <v>20</v>
       </c>
@@ -2842,9 +2894,7 @@
       <c r="B23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="2">
-        <v>0.00988425925925926</v>
-      </c>
+      <c r="C23" s="2"/>
       <c r="E23" s="3">
         <v>21</v>
       </c>
@@ -2887,9 +2937,7 @@
       <c r="B24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="2">
-        <v>0.0187962962962963</v>
-      </c>
+      <c r="C24" s="2"/>
       <c r="E24" s="3">
         <v>22</v>
       </c>
@@ -2927,9 +2975,7 @@
       <c r="B25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="2">
-        <v>0.0187731481481482</v>
-      </c>
+      <c r="C25" s="2"/>
       <c r="E25" s="3">
         <v>23</v>
       </c>
@@ -3403,7 +3449,7 @@
     <row r="39" spans="1:19">
       <c r="C39" s="8">
         <f>SUM(C3:C38)</f>
-        <v>0.291516203703704</v>
+        <v>0.163587962962963</v>
       </c>
       <c r="E39" s="3">
         <v>37</v>

--- a/빅분기 실기 자료/eduatoz/EduAtoz_빅분기_실기_230604.xlsx
+++ b/빅분기 실기 자료/eduatoz/EduAtoz_빅분기_실기_230604.xlsx
@@ -772,6 +772,18 @@
       <color rgb="FF002060"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="9" tint="0.799980"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
       <b/>
       <sz val="11.0"/>
       <name val="나눔바른펜"/>
@@ -791,37 +803,25 @@
       <color theme="1"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
       <b/>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
       <color theme="0"/>
     </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-      <color theme="9" tint="0.799980"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-      <color theme="9" tint="0.799980"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-      <color/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-      <color/>
-    </font>
   </fonts>
-  <fills count="40">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1037,25 +1037,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799980"/>
+        <fgColor rgb="FFE2F0D9"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2F0D9"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1404,28 +1392,28 @@
     <xf numFmtId="0" fontId="25" fillId="35" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1507,8 +1495,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14853284" y="7163435"/>
-          <a:ext cx="463551" cy="237490"/>
+          <a:off x="14825345" y="7145655"/>
+          <a:ext cx="463550" cy="237490"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:solidFill>
@@ -1586,8 +1574,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4076065" y="7009130"/>
-          <a:ext cx="1480185" cy="239395"/>
+          <a:off x="4048124" y="6991350"/>
+          <a:ext cx="1480186" cy="239395"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:solidFill>
@@ -1941,7 +1929,7 @@
   <dimension ref="A1:S54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
@@ -2047,7 +2035,7 @@
       <c r="I3" s="3">
         <v>1</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="16" t="s">
         <v>126</v>
       </c>
       <c r="K3" s="2">
@@ -2090,7 +2078,7 @@
       <c r="I4" s="3">
         <v>2</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="16" t="s">
         <v>127</v>
       </c>
       <c r="K4" s="2">
@@ -2133,7 +2121,7 @@
       <c r="I5" s="3">
         <v>3</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="16" t="s">
         <v>128</v>
       </c>
       <c r="K5" s="2">
@@ -2176,7 +2164,7 @@
       <c r="I6" s="3">
         <v>4</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="16" t="s">
         <v>129</v>
       </c>
       <c r="K6" s="2">
@@ -2219,7 +2207,7 @@
       <c r="I7" s="3">
         <v>5</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="16" t="s">
         <v>130</v>
       </c>
       <c r="K7" s="2">
@@ -2262,7 +2250,7 @@
       <c r="I8" s="3">
         <v>6</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="16" t="s">
         <v>131</v>
       </c>
       <c r="K8" s="2">
@@ -2305,7 +2293,7 @@
       <c r="I9" s="3">
         <v>7</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="16" t="s">
         <v>132</v>
       </c>
       <c r="K9" s="2">
@@ -2348,7 +2336,7 @@
       <c r="I10" s="11">
         <v>8</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="24" t="s">
         <v>133</v>
       </c>
       <c r="K10" s="13">
@@ -2391,7 +2379,7 @@
       <c r="I11" s="11">
         <v>9</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="24" t="s">
         <v>134</v>
       </c>
       <c r="K11" s="13">
@@ -2418,7 +2406,7 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="2"/>
@@ -2461,7 +2449,7 @@
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="27" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="2"/>
@@ -2504,7 +2492,7 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="2"/>
@@ -2547,7 +2535,7 @@
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="27" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="2"/>
@@ -2590,7 +2578,7 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C16" s="2"/>
@@ -2633,7 +2621,7 @@
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="28" t="s">
         <v>51</v>
       </c>
       <c r="C17" s="2"/>
@@ -2676,7 +2664,7 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="28" t="s">
         <v>52</v>
       </c>
       <c r="C18" s="2"/>
@@ -3006,12 +2994,10 @@
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="2">
-        <v>0.0118865740740741</v>
-      </c>
+      <c r="C26" s="2"/>
       <c r="E26" s="3">
         <v>24</v>
       </c>
@@ -3042,12 +3028,10 @@
       <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="2">
-        <v>0.0119560185185185</v>
-      </c>
+      <c r="C27" s="2"/>
       <c r="E27" s="3">
         <v>25</v>
       </c>
@@ -3078,12 +3062,10 @@
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="2">
-        <v>0.0111342592592593</v>
-      </c>
+      <c r="C28" s="2"/>
       <c r="E28" s="3">
         <v>26</v>
       </c>
@@ -3114,12 +3096,10 @@
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="2">
-        <v>0.0101736111111111</v>
-      </c>
+      <c r="C29" s="2"/>
       <c r="E29" s="3">
         <v>27</v>
       </c>
@@ -3150,12 +3130,10 @@
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="2">
-        <v>0.0193518518518519</v>
-      </c>
+      <c r="C30" s="2"/>
       <c r="E30" s="3">
         <v>28</v>
       </c>
@@ -3186,12 +3164,10 @@
       <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="2">
-        <v>0.0163773148148148</v>
-      </c>
+      <c r="C31" s="2"/>
       <c r="E31" s="3">
         <v>29</v>
       </c>
@@ -3222,12 +3198,10 @@
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="2">
-        <v>0.011875</v>
-      </c>
+      <c r="C32" s="2"/>
       <c r="E32" s="3">
         <v>30</v>
       </c>
@@ -3449,7 +3423,7 @@
     <row r="39" spans="1:19">
       <c r="C39" s="8">
         <f>SUM(C3:C38)</f>
-        <v>0.163587962962963</v>
+        <v>0.0708333333333334</v>
       </c>
       <c r="E39" s="3">
         <v>37</v>

--- a/빅분기 실기 자료/eduatoz/EduAtoz_빅분기_실기_230604.xlsx
+++ b/빅분기 실기 자료/eduatoz/EduAtoz_빅분기_실기_230604.xlsx
@@ -821,7 +821,7 @@
       <color theme="0"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1041,12 +1041,6 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -1325,7 +1319,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1411,9 +1405,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1475,13 +1466,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>2889250</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>170815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>27305</xdr:rowOff>
@@ -1495,7 +1486,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14825345" y="7145655"/>
+          <a:off x="9643745" y="7145655"/>
           <a:ext cx="463550" cy="237490"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -1926,49 +1917,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S54"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScale="40" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
   <cols>
-    <col min="2" max="2" width="50.29071317" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" width="65.57643018" customWidth="1" outlineLevel="0"/>
-    <col min="10" max="10" width="50.29071317" customWidth="1" outlineLevel="0"/>
-    <col min="14" max="14" width="57.86214338" customWidth="1" outlineLevel="0"/>
-    <col min="18" max="18" width="44.00499998" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="65.57643018" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="50.29071317" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="10" width="57.86214338" customWidth="1" outlineLevel="0"/>
+    <col min="14" max="14" width="44.00499998" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27.000000" customHeight="1">
+    <row r="1" spans="1:15" ht="27.000000" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="E1" s="7" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="I1" s="7" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
-      <c r="M1" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="Q1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="6" t="s">
         <v>35</v>
       </c>
@@ -2005,1679 +1990,1401 @@
       <c r="O2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="2"/>
+      <c r="B3" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.0140625</v>
+      </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>95</v>
+      <c r="F3" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="G3" s="2">
-        <v>0.0140625</v>
-      </c>
-      <c r="I3" s="3">
+        <v>0.00876157407407408</v>
+      </c>
+      <c r="I3" s="7">
         <v>1</v>
       </c>
-      <c r="J3" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0.00876157407407408</v>
-      </c>
-      <c r="M3" s="7">
+      <c r="J3" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0.0547569444444445</v>
+      </c>
+      <c r="M3" s="3">
         <v>1</v>
       </c>
-      <c r="N3" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="O3" s="10">
-        <v>0.0547569444444445</v>
-      </c>
-      <c r="Q3" s="3">
+      <c r="N3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" s="4"/>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="2"/>
+      <c r="B4" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.00472222222222222</v>
+      </c>
       <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>96</v>
+      <c r="F4" s="16" t="s">
+        <v>127</v>
       </c>
       <c r="G4" s="2">
-        <v>0.00472222222222222</v>
-      </c>
-      <c r="I4" s="3">
+        <v>0.00869212962962963</v>
+      </c>
+      <c r="I4" s="7">
         <v>2</v>
       </c>
-      <c r="J4" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.00869212962962963</v>
-      </c>
-      <c r="M4" s="7">
+      <c r="J4" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0.0543402777777778</v>
+      </c>
+      <c r="M4" s="3">
         <v>2</v>
       </c>
-      <c r="N4" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="O4" s="10">
-        <v>0.0543402777777778</v>
-      </c>
-      <c r="Q4" s="3">
+      <c r="N4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="S4" s="4"/>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="2"/>
+      <c r="B5" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.0133449074074074</v>
+      </c>
       <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>97</v>
+      <c r="F5" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="G5" s="2">
-        <v>0.0133449074074074</v>
-      </c>
-      <c r="I5" s="3">
+        <v>0.0135185185185185</v>
+      </c>
+      <c r="I5" s="7">
         <v>3</v>
       </c>
-      <c r="J5" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.0135185185185185</v>
-      </c>
-      <c r="M5" s="7">
+      <c r="J5" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0.0513194444444444</v>
+      </c>
+      <c r="M5" s="3">
         <v>3</v>
       </c>
-      <c r="N5" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="O5" s="10">
-        <v>0.0513194444444444</v>
-      </c>
-      <c r="Q5" s="3">
+      <c r="N5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="S5" s="4"/>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="2"/>
+      <c r="B6" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.00475694444444445</v>
+      </c>
       <c r="E6" s="3">
         <v>4</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>98</v>
+      <c r="F6" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="G6" s="2">
-        <v>0.00475694444444445</v>
-      </c>
-      <c r="I6" s="3">
+        <v>0.00868055555555556</v>
+      </c>
+      <c r="I6" s="11">
         <v>4</v>
       </c>
-      <c r="J6" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0.00868055555555556</v>
-      </c>
-      <c r="M6" s="11">
+      <c r="J6" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0.0399768518518519</v>
+      </c>
+      <c r="M6" s="3">
         <v>4</v>
       </c>
-      <c r="N6" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="O6" s="13">
-        <v>0.0399768518518519</v>
-      </c>
-      <c r="Q6" s="3">
+      <c r="N6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="R6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="S6" s="4"/>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="2"/>
+      <c r="B7" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.0169560185185185</v>
+      </c>
       <c r="E7" s="3">
         <v>5</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>99</v>
+      <c r="F7" s="16" t="s">
+        <v>130</v>
       </c>
       <c r="G7" s="2">
         <v>0.0169560185185185</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="11">
         <v>5</v>
       </c>
-      <c r="J7" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0.0169560185185185</v>
-      </c>
-      <c r="M7" s="11">
+      <c r="J7" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0.0390740740740741</v>
+      </c>
+      <c r="M7" s="3">
         <v>5</v>
       </c>
-      <c r="N7" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="O7" s="13">
-        <v>0.0390740740740741</v>
-      </c>
-      <c r="Q7" s="3">
+      <c r="N7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="S7" s="4"/>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="2"/>
+      <c r="B8" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.013599537037037</v>
+      </c>
       <c r="E8" s="3">
         <v>6</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>100</v>
+      <c r="F8" s="16" t="s">
+        <v>131</v>
       </c>
       <c r="G8" s="2">
-        <v>0.013599537037037</v>
-      </c>
-      <c r="I8" s="3">
+        <v>0.0105439814814815</v>
+      </c>
+      <c r="I8" s="11">
         <v>6</v>
       </c>
-      <c r="J8" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0.0105439814814815</v>
-      </c>
-      <c r="M8" s="11">
+      <c r="J8" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="K8" s="13">
+        <v>0.0487962962962963</v>
+      </c>
+      <c r="M8" s="3">
         <v>6</v>
       </c>
-      <c r="N8" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="O8" s="13">
-        <v>0.0487962962962963</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="N8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="R8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="S8" s="4"/>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="2"/>
+      <c r="B9" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.00998842592592593</v>
+      </c>
       <c r="E9" s="3">
         <v>7</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>101</v>
+      <c r="F9" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="G9" s="2">
-        <v>0.00998842592592593</v>
-      </c>
-      <c r="I9" s="3">
+        <v>0.00958333333333333</v>
+      </c>
+      <c r="I9" s="11">
         <v>7</v>
       </c>
-      <c r="J9" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0.00958333333333333</v>
-      </c>
-      <c r="M9" s="11">
+      <c r="J9" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0.0372569444444444</v>
+      </c>
+      <c r="M9" s="3">
         <v>7</v>
       </c>
-      <c r="N9" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="O9" s="13">
-        <v>0.0372569444444444</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="N9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S9" s="4"/>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="E10" s="3">
+      <c r="B10" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.00861111111111111</v>
+      </c>
+      <c r="E10" s="11">
         <v>8</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.00861111111111111</v>
+      <c r="F10" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.00835648148148148</v>
       </c>
       <c r="I10" s="11">
         <v>8</v>
       </c>
-      <c r="J10" s="24" t="s">
-        <v>133</v>
+      <c r="J10" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="K10" s="13">
-        <v>0.00835648148148148</v>
-      </c>
-      <c r="M10" s="11">
+        <v>0.050162037037037</v>
+      </c>
+      <c r="M10" s="3">
         <v>8</v>
       </c>
-      <c r="N10" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="O10" s="13">
-        <v>0.050162037037037</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="N10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="R10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="S10" s="4"/>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="E11" s="3">
+      <c r="B11" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.0118518518518519</v>
+      </c>
+      <c r="E11" s="11">
         <v>9</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.0118518518518519</v>
+      <c r="F11" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.00921296296296296</v>
       </c>
       <c r="I11" s="11">
         <v>9</v>
       </c>
-      <c r="J11" s="24" t="s">
-        <v>134</v>
+      <c r="J11" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="K11" s="13">
-        <v>0.00921296296296296</v>
-      </c>
-      <c r="M11" s="11">
+        <v>0.00606481481481482</v>
+      </c>
+      <c r="M11" s="3">
         <v>9</v>
       </c>
-      <c r="N11" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="O11" s="13">
-        <v>0.00606481481481482</v>
-      </c>
-      <c r="Q11" s="3">
+      <c r="N11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="S11" s="4"/>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="E12" s="3">
+      <c r="B12" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.0139699074074074</v>
+      </c>
+      <c r="E12" s="11">
         <v>10</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.0139699074074074</v>
+      <c r="F12" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0.00626157407407408</v>
       </c>
       <c r="I12" s="11">
         <v>10</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="K12" s="13">
-        <v>0.00626157407407408</v>
-      </c>
-      <c r="M12" s="11">
+        <v>0.033287037037037</v>
+      </c>
+      <c r="M12" s="3">
         <v>10</v>
       </c>
-      <c r="N12" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="O12" s="13">
-        <v>0.033287037037037</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="N12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="R12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S12" s="4"/>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="E13" s="3">
+      <c r="B13" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.00653935185185185</v>
+      </c>
+      <c r="E13" s="11">
         <v>11</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.00653935185185185</v>
+      <c r="F13" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0.00631944444444444</v>
       </c>
       <c r="I13" s="11">
         <v>11</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="K13" s="13">
-        <v>0.00631944444444444</v>
-      </c>
-      <c r="M13" s="11">
+        <v>0.0496759259259259</v>
+      </c>
+      <c r="M13" s="3">
         <v>11</v>
       </c>
-      <c r="N13" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="O13" s="13">
-        <v>0.0496759259259259</v>
-      </c>
-      <c r="Q13" s="3">
+      <c r="N13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="R13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="S13" s="4"/>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="E14" s="3">
+      <c r="B14" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.00954861111111111</v>
+      </c>
+      <c r="E14" s="11">
         <v>12</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.00954861111111111</v>
+      <c r="F14" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.0206828703703704</v>
       </c>
       <c r="I14" s="11">
         <v>12</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="K14" s="13">
-        <v>0.0206828703703704</v>
-      </c>
-      <c r="M14" s="11">
+        <v>0.0166435185185185</v>
+      </c>
+      <c r="M14" s="3">
         <v>12</v>
       </c>
-      <c r="N14" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="O14" s="13">
-        <v>0.0166435185185185</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="N14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="R14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S14" s="4"/>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="E15" s="3">
+      <c r="B15" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.0137615740740741</v>
+      </c>
+      <c r="E15" s="11">
         <v>13</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.0137615740740741</v>
+      <c r="F15" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.00958333333333333</v>
       </c>
       <c r="I15" s="11">
         <v>13</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="K15" s="13">
-        <v>0.00958333333333333</v>
-      </c>
-      <c r="M15" s="11">
+        <v>0.00930555555555556</v>
+      </c>
+      <c r="M15" s="3">
         <v>13</v>
       </c>
-      <c r="N15" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="O15" s="13">
-        <v>0.00930555555555556</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="N15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S15" s="4"/>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="E16" s="3">
+      <c r="B16" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.0075</v>
+      </c>
+      <c r="E16" s="11">
         <v>14</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.0075</v>
+      <c r="F16" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0.00667824074074074</v>
       </c>
       <c r="I16" s="11">
         <v>14</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="K16" s="13">
-        <v>0.00667824074074074</v>
-      </c>
-      <c r="M16" s="11">
+        <v>0.0102430555555556</v>
+      </c>
+      <c r="M16" s="3">
         <v>14</v>
       </c>
-      <c r="N16" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="O16" s="13">
-        <v>0.0102430555555556</v>
-      </c>
-      <c r="Q16" s="3">
+      <c r="N16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="S16" s="4"/>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="E17" s="3">
+      <c r="B17" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.00672453703703704</v>
+      </c>
+      <c r="E17" s="11">
         <v>15</v>
       </c>
-      <c r="F17" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.00672453703703704</v>
+      <c r="F17" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0.009375</v>
       </c>
       <c r="I17" s="11">
         <v>15</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="K17" s="13">
-        <v>0.009375</v>
-      </c>
-      <c r="M17" s="11">
+        <v>0.00533564814814815</v>
+      </c>
+      <c r="M17" s="3">
         <v>15</v>
       </c>
-      <c r="N17" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="O17" s="13">
-        <v>0.00533564814814815</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="N17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="S17" s="4"/>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="E18" s="3">
+      <c r="B18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.00741898148148148</v>
+      </c>
+      <c r="E18" s="11">
         <v>16</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.00741898148148148</v>
+      <c r="F18" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.00427083333333333</v>
       </c>
       <c r="I18" s="11">
         <v>16</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="K18" s="13">
-        <v>0.00427083333333333</v>
-      </c>
-      <c r="M18" s="11">
+        <v>0.0206365740740741</v>
+      </c>
+      <c r="M18" s="3">
         <v>16</v>
       </c>
-      <c r="N18" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="O18" s="13">
-        <v>0.0206365740740741</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="N18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="S18" s="4"/>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="E19" s="3">
+        <v>111</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.0134606481481481</v>
+      </c>
+      <c r="E19" s="11">
         <v>17</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.0134606481481481</v>
+      <c r="F19" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.0172916666666667</v>
       </c>
       <c r="I19" s="11">
         <v>17</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="K19" s="13">
-        <v>0.0172916666666667</v>
-      </c>
-      <c r="M19" s="11">
+        <v>0.0243055555555556</v>
+      </c>
+      <c r="M19" s="3">
         <v>17</v>
       </c>
-      <c r="N19" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="O19" s="13">
-        <v>0.0243055555555556</v>
-      </c>
-      <c r="Q19" s="3">
+      <c r="N19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S19" s="4"/>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="E20" s="3">
+        <v>112</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.0111226851851852</v>
+      </c>
+      <c r="E20" s="11">
         <v>18</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0.0111226851851852</v>
+      <c r="F20" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0.006875</v>
       </c>
       <c r="I20" s="11">
         <v>18</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="K20" s="13">
-        <v>0.006875</v>
-      </c>
-      <c r="M20" s="11">
+        <v>0.0550462962962963</v>
+      </c>
+      <c r="M20" s="3">
         <v>18</v>
       </c>
-      <c r="N20" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="O20" s="13">
-        <v>0.0550462962962963</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="N20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="R20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S20" s="4"/>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="O20" s="4"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="E21" s="3">
+        <v>113</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.0126273148148148</v>
+      </c>
+      <c r="E21" s="11">
         <v>19</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0.0126273148148148</v>
+      <c r="F21" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0.00505787037037037</v>
       </c>
       <c r="I21" s="11">
         <v>19</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="K21" s="13">
-        <v>0.00505787037037037</v>
-      </c>
-      <c r="M21" s="11">
+        <v>0.00655092592592593</v>
+      </c>
+      <c r="M21" s="3">
         <v>19</v>
       </c>
-      <c r="N21" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="O21" s="13">
-        <v>0.00655092592592593</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="N21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="R21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="S21" s="4"/>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="E22" s="3">
+        <v>114</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.00712962962962963</v>
+      </c>
+      <c r="E22" s="11">
         <v>20</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0.00712962962962963</v>
+      <c r="F22" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="13">
+        <v>0.00530092592592593</v>
       </c>
       <c r="I22" s="11">
         <v>20</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="K22" s="13">
-        <v>0.00530092592592593</v>
-      </c>
-      <c r="M22" s="11">
+        <v>0.00581018518518519</v>
+      </c>
+      <c r="M22" s="3">
         <v>20</v>
       </c>
-      <c r="N22" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="O22" s="13">
-        <v>0.00581018518518519</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="N22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S22" s="4"/>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="O22" s="4"/>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="3">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="E23" s="3">
+        <v>115</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.00710648148148148</v>
+      </c>
+      <c r="E23" s="11">
         <v>21</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.00710648148148148</v>
+      <c r="F23" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="13">
+        <v>0.00947916666666667</v>
       </c>
       <c r="I23" s="11">
         <v>21</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="K23" s="13">
-        <v>0.00947916666666667</v>
-      </c>
-      <c r="M23" s="11">
+        <v>0.0670717592592593</v>
+      </c>
+      <c r="M23" s="3">
         <v>21</v>
       </c>
-      <c r="N23" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="O23" s="13">
-        <v>0.0670717592592593</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="N23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="R23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S23" s="4"/>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="O23" s="4"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="E24" s="3">
+      <c r="B24" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.0106018518518519</v>
+      </c>
+      <c r="E24" s="11">
         <v>22</v>
       </c>
-      <c r="F24" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0.0106018518518519</v>
-      </c>
-      <c r="I24" s="11">
+      <c r="F24" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G24" s="13">
+        <v>0.00793981481481482</v>
+      </c>
+      <c r="K24" s="8">
+        <f>SUM(K6:K23)</f>
+        <v>0.525243055555556</v>
+      </c>
+      <c r="M24" s="3">
         <v>22</v>
       </c>
-      <c r="J24" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="K24" s="13">
-        <v>0.00793981481481482</v>
-      </c>
-      <c r="O24" s="8">
-        <f>SUM(O6:O23)</f>
-        <v>0.525243055555556</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="N24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="R24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="S24" s="4"/>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="O24" s="4"/>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="E25" s="3">
+      <c r="B25" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.0249884259259259</v>
+      </c>
+      <c r="E25" s="11">
         <v>23</v>
       </c>
-      <c r="F25" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0.0249884259259259</v>
-      </c>
-      <c r="I25" s="11">
+      <c r="F25" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="13">
+        <v>0.0127083333333333</v>
+      </c>
+      <c r="M25" s="3">
         <v>23</v>
       </c>
-      <c r="J25" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="K25" s="13">
-        <v>0.0127083333333333</v>
-      </c>
-      <c r="Q25" s="3">
+      <c r="N25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="R25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S25" s="4"/>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="O25" s="4"/>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="E26" s="3">
+      <c r="B26" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.00957175925925926</v>
+      </c>
+      <c r="E26" s="11">
         <v>24</v>
       </c>
-      <c r="F26" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0.00957175925925926</v>
-      </c>
-      <c r="I26" s="11">
+      <c r="F26" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" s="13">
+        <v>0.00966435185185185</v>
+      </c>
+      <c r="M26" s="3">
         <v>24</v>
       </c>
-      <c r="J26" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="K26" s="13">
-        <v>0.00966435185185185</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="N26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S26" s="4"/>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="O26" s="4"/>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="E27" s="3">
+      <c r="B27" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.012349537037037</v>
+      </c>
+      <c r="E27" s="11">
         <v>25</v>
       </c>
-      <c r="F27" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0.012349537037037</v>
-      </c>
-      <c r="I27" s="11">
+      <c r="F27" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G27" s="13">
+        <v>0.0116203703703704</v>
+      </c>
+      <c r="M27" s="3">
         <v>25</v>
       </c>
-      <c r="J27" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="K27" s="13">
-        <v>0.0116203703703704</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="N27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="R27" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S27" s="4"/>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="O27" s="4"/>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="E28" s="3">
+      <c r="B28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.0116666666666667</v>
+      </c>
+      <c r="E28" s="11">
         <v>26</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0.0116666666666667</v>
-      </c>
-      <c r="I28" s="11">
+      <c r="F28" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G28" s="13">
+        <v>0.0114699074074074</v>
+      </c>
+      <c r="M28" s="3">
         <v>26</v>
       </c>
-      <c r="J28" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="K28" s="13">
-        <v>0.0114699074074074</v>
-      </c>
-      <c r="Q28" s="3">
+      <c r="N28" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="S28" s="4"/>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="O28" s="4"/>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="E29" s="3">
+      <c r="B29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.0100578703703704</v>
+      </c>
+      <c r="E29" s="11">
         <v>27</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0.0100578703703704</v>
-      </c>
-      <c r="I29" s="11">
+      <c r="F29" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G29" s="13">
+        <v>0.0101967592592593</v>
+      </c>
+      <c r="M29" s="3">
         <v>27</v>
       </c>
-      <c r="J29" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="K29" s="13">
-        <v>0.0101967592592593</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="N29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="R29" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="S29" s="4"/>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="O29" s="4"/>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="E30" s="3">
+      <c r="B30" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.0132638888888889</v>
+      </c>
+      <c r="E30" s="11">
         <v>28</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0.0132638888888889</v>
-      </c>
-      <c r="I30" s="11">
+      <c r="F30" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G30" s="13">
+        <v>0.0144328703703704</v>
+      </c>
+      <c r="M30" s="3">
         <v>28</v>
       </c>
-      <c r="J30" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="K30" s="13">
-        <v>0.0144328703703704</v>
-      </c>
-      <c r="Q30" s="3">
+      <c r="N30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S30" s="4"/>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="O30" s="4"/>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="E31" s="3">
+      <c r="B31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.0149421296296296</v>
+      </c>
+      <c r="E31" s="11">
         <v>29</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0.0149421296296296</v>
-      </c>
-      <c r="I31" s="11">
+      <c r="F31" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G31" s="13">
+        <v>0.00649305555555556</v>
+      </c>
+      <c r="M31" s="3">
         <v>29</v>
       </c>
-      <c r="J31" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="K31" s="13">
-        <v>0.00649305555555556</v>
-      </c>
-      <c r="Q31" s="3">
+      <c r="N31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="R31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S31" s="4"/>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="O31" s="4"/>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="E32" s="3">
+      <c r="B32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.00518518518518519</v>
+      </c>
+      <c r="E32" s="11">
         <v>30</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0.00518518518518519</v>
-      </c>
-      <c r="I32" s="11">
+      <c r="F32" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G32" s="13">
+        <v>0.00626157407407408</v>
+      </c>
+      <c r="M32" s="3">
         <v>30</v>
       </c>
-      <c r="J32" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="K32" s="13">
-        <v>0.00626157407407408</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="N32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="R32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S32" s="4"/>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="O32" s="4"/>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>67</v>
+      <c r="B33" s="20" t="s">
+        <v>74</v>
       </c>
       <c r="C33" s="2">
-        <v>0.0165740740740741</v>
-      </c>
-      <c r="E33" s="3">
+        <v>0.0062037037037037</v>
+      </c>
+      <c r="E33" s="11">
         <v>31</v>
       </c>
-      <c r="F33" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="G33" s="2">
-        <v>0.0062037037037037</v>
-      </c>
-      <c r="I33" s="11">
+      <c r="F33" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G33" s="13">
+        <v>0.00741898148148148</v>
+      </c>
+      <c r="M33" s="3">
         <v>31</v>
       </c>
-      <c r="J33" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="K33" s="13">
-        <v>0.00741898148148148</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="N33" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="R33" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="S33" s="4"/>
-    </row>
-    <row r="34" spans="1:19">
+      <c r="O33" s="4"/>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>68</v>
+      <c r="B34" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="C34" s="2">
-        <v>0.013587962962963</v>
-      </c>
-      <c r="E34" s="3">
+        <v>0.0102893518518519</v>
+      </c>
+      <c r="E34" s="11">
         <v>32</v>
       </c>
-      <c r="F34" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0.0102893518518519</v>
-      </c>
-      <c r="I34" s="11">
+      <c r="F34" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="G34" s="13">
+        <v>0.00777777777777778</v>
+      </c>
+      <c r="M34" s="3">
         <v>32</v>
       </c>
-      <c r="J34" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="K34" s="13">
-        <v>0.00777777777777778</v>
-      </c>
-      <c r="Q34" s="3">
+      <c r="N34" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="R34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S34" s="4"/>
-    </row>
-    <row r="35" spans="1:19">
+      <c r="O34" s="4"/>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>69</v>
+      <c r="B35" s="20" t="s">
+        <v>76</v>
       </c>
       <c r="C35" s="2">
-        <v>0.00905092592592593</v>
-      </c>
-      <c r="E35" s="3">
+        <v>0.0107638888888889</v>
+      </c>
+      <c r="E35" s="11">
         <v>33</v>
       </c>
-      <c r="F35" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0.0107638888888889</v>
-      </c>
-      <c r="I35" s="11">
-        <v>33</v>
-      </c>
-      <c r="J35" s="12" t="s">
+      <c r="F35" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="K35" s="13">
+      <c r="G35" s="13">
         <v>0.0134722222222222</v>
       </c>
-      <c r="S35" s="8">
-        <f>SUM(S3:S34)</f>
+      <c r="O35" s="8">
+        <f>SUM(O3:O34)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:15">
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>70</v>
+      <c r="B36" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="C36" s="2">
-        <v>0.00530092592592593</v>
-      </c>
-      <c r="E36" s="3">
+        <v>0.0081712962962963</v>
+      </c>
+      <c r="E36" s="11">
         <v>34</v>
       </c>
-      <c r="F36" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G36" s="2">
-        <v>0.0081712962962963</v>
-      </c>
-      <c r="I36" s="11">
-        <v>34</v>
-      </c>
-      <c r="J36" s="12" t="s">
+      <c r="F36" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="K36" s="13">
+      <c r="G36" s="13">
         <v>0.00554398148148148</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:15">
       <c r="A37" s="3">
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>71</v>
+      <c r="B37" s="20" t="s">
+        <v>78</v>
       </c>
       <c r="C37" s="2">
-        <v>0.0101157407407407</v>
-      </c>
-      <c r="E37" s="3">
+        <v>0.00886574074074074</v>
+      </c>
+      <c r="E37" s="21">
         <v>35</v>
       </c>
-      <c r="F37" s="20" t="s">
-        <v>78</v>
+      <c r="F37" s="16" t="s">
+        <v>182</v>
       </c>
       <c r="G37" s="2">
-        <v>0.00886574074074074</v>
-      </c>
-      <c r="I37" s="21">
-        <v>35</v>
-      </c>
-      <c r="J37" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="K37" s="2">
         <v>0.00436342592592593</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:15">
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>72</v>
+      <c r="B38" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="C38" s="2">
-        <v>0.0162037037037037</v>
-      </c>
-      <c r="E38" s="3">
+        <v>0.0108912037037037</v>
+      </c>
+      <c r="E38" s="21">
         <v>36</v>
       </c>
-      <c r="F38" s="20" t="s">
-        <v>79</v>
+      <c r="F38" s="16" t="s">
+        <v>183</v>
       </c>
       <c r="G38" s="2">
+        <v>0.00605324074074074</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.00680555555555556</v>
+      </c>
+      <c r="E39" s="21">
+        <v>37</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.0111921296296296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.0150347222222222</v>
+      </c>
+      <c r="E40" s="21">
+        <v>38</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.010162037037037</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.00732638888888889</v>
+      </c>
+      <c r="E41" s="21">
+        <v>39</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.00586805555555555</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.0126851851851852</v>
+      </c>
+      <c r="E42" s="21">
+        <v>40</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.0121412037037037</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.0129282407407407</v>
+      </c>
+      <c r="E43" s="21">
+        <v>41</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.0130555555555556</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.0132638888888889</v>
+      </c>
+      <c r="E44" s="21">
+        <v>42</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="G44" s="2">
         <v>0.0108912037037037</v>
       </c>
-      <c r="I38" s="21">
-        <v>36</v>
-      </c>
-      <c r="J38" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="K38" s="2">
-        <v>0.00605324074074074</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
-      <c r="C39" s="8">
-        <f>SUM(C3:C38)</f>
-        <v>0.0708333333333334</v>
-      </c>
-      <c r="E39" s="3">
-        <v>37</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G39" s="2">
-        <v>0.00680555555555556</v>
-      </c>
-      <c r="I39" s="21">
-        <v>37</v>
-      </c>
-      <c r="J39" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="K39" s="2">
-        <v>0.0111921296296296</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
-      <c r="E40" s="3">
-        <v>38</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G40" s="2">
-        <v>0.0150347222222222</v>
-      </c>
-      <c r="I40" s="21">
-        <v>38</v>
-      </c>
-      <c r="J40" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="K40" s="2">
-        <v>0.010162037037037</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
-      <c r="E41" s="3">
-        <v>39</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G41" s="2">
-        <v>0.00732638888888889</v>
-      </c>
-      <c r="I41" s="21">
-        <v>39</v>
-      </c>
-      <c r="J41" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="K41" s="2">
-        <v>0.00586805555555555</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
-      <c r="E42" s="3">
-        <v>40</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G42" s="2">
-        <v>0.0126851851851852</v>
-      </c>
-      <c r="I42" s="21">
-        <v>40</v>
-      </c>
-      <c r="J42" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="K42" s="2">
-        <v>0.0121412037037037</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
-      <c r="E43" s="3">
-        <v>41</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G43" s="2">
-        <v>0.0129282407407407</v>
-      </c>
-      <c r="I43" s="21">
-        <v>41</v>
-      </c>
-      <c r="J43" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="K43" s="2">
-        <v>0.0130555555555556</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19">
-      <c r="E44" s="3">
-        <v>42</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G44" s="2">
-        <v>0.0132638888888889</v>
-      </c>
-      <c r="I44" s="21">
-        <v>42</v>
-      </c>
-      <c r="J44" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="K44" s="2">
-        <v>0.0108912037037037</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19">
-      <c r="E45" s="3">
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="3">
         <v>43</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="C45" s="2">
+        <v>0.0103703703703704</v>
+      </c>
+      <c r="E45" s="21">
+        <v>43</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>190</v>
+      </c>
       <c r="G45" s="2">
-        <v>0.0103703703703704</v>
-      </c>
-      <c r="I45" s="21">
-        <v>43</v>
-      </c>
-      <c r="J45" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="K45" s="2">
         <v>0.00538194444444445</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
-      <c r="E46" s="3">
+    <row r="46" spans="1:15">
+      <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="C46" s="2">
+        <v>0.0154861111111111</v>
+      </c>
+      <c r="E46" s="21">
+        <v>44</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>191</v>
+      </c>
       <c r="G46" s="2">
-        <v>0.0154861111111111</v>
-      </c>
-      <c r="I46" s="21">
-        <v>44</v>
-      </c>
-      <c r="J46" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="K46" s="2">
         <v>0.00783564814814815</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
-      <c r="E47" s="3">
+    <row r="47" spans="1:15">
+      <c r="A47" s="3">
         <v>45</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G47" s="2">
+      <c r="C47" s="2">
         <v>0.0128240740740741</v>
       </c>
-      <c r="K47" s="8">
-        <f>SUM(K3:K46)</f>
+      <c r="G47" s="8">
+        <f>SUM(G3:G46)</f>
         <v>0.413425925925926</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
-      <c r="E48" s="3">
+    <row r="48" spans="1:15">
+      <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G48" s="2">
+      <c r="C48" s="2">
         <v>0.0104976851851852</v>
       </c>
     </row>
-    <row r="49" spans="5:7">
-      <c r="E49" s="3">
+    <row r="49" spans="1:3">
+      <c r="A49" s="3">
         <v>47</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G49" s="2">
+      <c r="C49" s="2">
         <v>0.00646990740740741</v>
       </c>
     </row>
-    <row r="50" spans="5:7">
-      <c r="E50" s="3">
+    <row r="50" spans="1:3">
+      <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G50" s="2">
+      <c r="C50" s="2">
         <v>0.00568287037037037</v>
       </c>
     </row>
-    <row r="51" spans="5:7">
-      <c r="E51" s="3">
+    <row r="51" spans="1:3">
+      <c r="A51" s="3">
         <v>49</v>
       </c>
-      <c r="F51" s="20" t="s">
+      <c r="B51" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="G51" s="2">
+      <c r="C51" s="2">
         <v>0.0135069444444444</v>
       </c>
     </row>
-    <row r="52" spans="5:7">
-      <c r="E52" s="3">
+    <row r="52" spans="1:3">
+      <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="F52" s="20" t="s">
+      <c r="B52" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="G52" s="2">
+      <c r="C52" s="2">
         <v>0.00679398148148148</v>
       </c>
     </row>
-    <row r="53" spans="5:7">
-      <c r="E53" s="3">
+    <row r="53" spans="1:3">
+      <c r="A53" s="3">
         <v>51</v>
       </c>
-      <c r="F53" s="20" t="s">
+      <c r="B53" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="G53" s="2">
+      <c r="C53" s="2">
         <v>0.0109722222222222</v>
       </c>
     </row>
-    <row r="54" spans="5:7">
-      <c r="G54" s="8">
-        <f>SUM(G3:G53)</f>
+    <row r="54" spans="1:3">
+      <c r="C54" s="8">
+        <f>SUM(C3:C53)</f>
         <v>0.543263888888889</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="M1:O1"/>
-    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>

--- a/빅분기 실기 자료/eduatoz/EduAtoz_빅분기_실기_230604.xlsx
+++ b/빅분기 실기 자료/eduatoz/EduAtoz_빅분기_실기_230604.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
   <si>
     <t>파이썬</t>
   </si>
@@ -598,6 +598,9 @@
   </si>
   <si>
     <t>데이터의 변경, 데이터 값 변경</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -605,7 +608,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="34">
+  <fonts count="33">
     <font>
       <sz val="11.0"/>
       <name val="Calibri"/>
@@ -803,25 +806,19 @@
       <color theme="1"/>
     </font>
     <font>
+      <b/>
       <sz val="11.0"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <color theme="0"/>
     </font>
     <font>
       <sz val="11.0"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1041,6 +1038,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -1319,7 +1322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1405,6 +1408,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="3" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1486,7 +1498,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9643745" y="7145655"/>
+          <a:off x="9671685" y="7163435"/>
           <a:ext cx="463550" cy="237490"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -1565,8 +1577,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4048124" y="6991350"/>
-          <a:ext cx="1480186" cy="239395"/>
+          <a:off x="4076065" y="7009130"/>
+          <a:ext cx="1480185" cy="239395"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:solidFill>
@@ -1919,8 +1931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="G18" sqref="G3:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
@@ -2007,7 +2019,7 @@
       <c r="F3" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="30">
         <v>0.00876157407407408</v>
       </c>
       <c r="I3" s="7">
@@ -2043,7 +2055,7 @@
       <c r="F4" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="30">
         <v>0.00869212962962963</v>
       </c>
       <c r="I4" s="7">
@@ -2079,7 +2091,7 @@
       <c r="F5" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="30">
         <v>0.0135185185185185</v>
       </c>
       <c r="I5" s="7">
@@ -2115,7 +2127,7 @@
       <c r="F6" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="30">
         <v>0.00868055555555556</v>
       </c>
       <c r="I6" s="11">
@@ -2151,7 +2163,7 @@
       <c r="F7" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="30">
         <v>0.0169560185185185</v>
       </c>
       <c r="I7" s="11">
@@ -2187,7 +2199,7 @@
       <c r="F8" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="30">
         <v>0.0105439814814815</v>
       </c>
       <c r="I8" s="11">
@@ -2223,7 +2235,7 @@
       <c r="F9" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="30">
         <v>0.00958333333333333</v>
       </c>
       <c r="I9" s="11">
@@ -2259,7 +2271,7 @@
       <c r="F10" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="31">
         <v>0.00835648148148148</v>
       </c>
       <c r="I10" s="11">
@@ -2295,7 +2307,7 @@
       <c r="F11" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="31">
         <v>0.00921296296296296</v>
       </c>
       <c r="I11" s="11">
@@ -2331,7 +2343,7 @@
       <c r="F12" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="31">
         <v>0.00626157407407408</v>
       </c>
       <c r="I12" s="11">
@@ -2367,7 +2379,7 @@
       <c r="F13" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="31">
         <v>0.00631944444444444</v>
       </c>
       <c r="I13" s="11">
@@ -2403,7 +2415,7 @@
       <c r="F14" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="31">
         <v>0.0206828703703704</v>
       </c>
       <c r="I14" s="11">
@@ -2439,7 +2451,7 @@
       <c r="F15" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="31">
         <v>0.00958333333333333</v>
       </c>
       <c r="I15" s="11">
@@ -2475,7 +2487,7 @@
       <c r="F16" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="31">
         <v>0.00667824074074074</v>
       </c>
       <c r="I16" s="11">
@@ -2511,7 +2523,7 @@
       <c r="F17" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="31">
         <v>0.009375</v>
       </c>
       <c r="I17" s="11">
@@ -2547,8 +2559,8 @@
       <c r="F18" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="G18" s="13">
-        <v>0.00427083333333333</v>
+      <c r="G18" s="31" t="s">
+        <v>194</v>
       </c>
       <c r="I18" s="11">
         <v>16</v>
@@ -2583,9 +2595,7 @@
       <c r="F19" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="G19" s="13">
-        <v>0.0172916666666667</v>
-      </c>
+      <c r="G19" s="13"/>
       <c r="I19" s="11">
         <v>17</v>
       </c>
@@ -2619,9 +2629,7 @@
       <c r="F20" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="G20" s="13">
-        <v>0.006875</v>
-      </c>
+      <c r="G20" s="13"/>
       <c r="I20" s="11">
         <v>18</v>
       </c>
@@ -3304,7 +3312,7 @@
       </c>
       <c r="G47" s="8">
         <f>SUM(G3:G46)</f>
-        <v>0.413425925925926</v>
+        <v>0.384988425925926</v>
       </c>
     </row>
     <row r="48" spans="1:15">

--- a/빅분기 실기 자료/eduatoz/EduAtoz_빅분기_실기_230604.xlsx
+++ b/빅분기 실기 자료/eduatoz/EduAtoz_빅분기_실기_230604.xlsx
@@ -608,7 +608,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="11.0"/>
       <name val="Calibri"/>
@@ -810,12 +810,6 @@
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
       <color theme="0"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-      <color rgb="FFFF0000"/>
     </font>
   </fonts>
   <fills count="38">
@@ -1410,7 +1404,7 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="21" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1498,7 +1492,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9671685" y="7163435"/>
+          <a:off x="9643745" y="7145655"/>
           <a:ext cx="463550" cy="237490"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -1577,8 +1571,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4076065" y="7009130"/>
-          <a:ext cx="1480185" cy="239395"/>
+          <a:off x="4048124" y="6991350"/>
+          <a:ext cx="1480186" cy="239395"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:solidFill>
@@ -1931,8 +1925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="G18" sqref="G3:G18"/>
+    <sheetView topLeftCell="A19" tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
@@ -2019,9 +2013,7 @@
       <c r="F3" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G3" s="30">
-        <v>0.00876157407407408</v>
-      </c>
+      <c r="G3" s="30"/>
       <c r="I3" s="7">
         <v>1</v>
       </c>
@@ -2055,9 +2047,7 @@
       <c r="F4" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="G4" s="30">
-        <v>0.00869212962962963</v>
-      </c>
+      <c r="G4" s="30"/>
       <c r="I4" s="7">
         <v>2</v>
       </c>
@@ -2091,9 +2081,7 @@
       <c r="F5" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="30">
-        <v>0.0135185185185185</v>
-      </c>
+      <c r="G5" s="30"/>
       <c r="I5" s="7">
         <v>3</v>
       </c>
@@ -2127,9 +2115,7 @@
       <c r="F6" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="G6" s="30">
-        <v>0.00868055555555556</v>
-      </c>
+      <c r="G6" s="30"/>
       <c r="I6" s="11">
         <v>4</v>
       </c>
@@ -2163,9 +2149,7 @@
       <c r="F7" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="G7" s="30">
-        <v>0.0169560185185185</v>
-      </c>
+      <c r="G7" s="30"/>
       <c r="I7" s="11">
         <v>5</v>
       </c>
@@ -2199,9 +2183,7 @@
       <c r="F8" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="30">
-        <v>0.0105439814814815</v>
-      </c>
+      <c r="G8" s="30"/>
       <c r="I8" s="11">
         <v>6</v>
       </c>
@@ -2235,9 +2217,7 @@
       <c r="F9" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="G9" s="30">
-        <v>0.00958333333333333</v>
-      </c>
+      <c r="G9" s="30"/>
       <c r="I9" s="11">
         <v>7</v>
       </c>
@@ -2271,9 +2251,7 @@
       <c r="F10" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="G10" s="31">
-        <v>0.00835648148148148</v>
-      </c>
+      <c r="G10" s="31"/>
       <c r="I10" s="11">
         <v>8</v>
       </c>
@@ -2307,9 +2285,7 @@
       <c r="F11" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="31">
-        <v>0.00921296296296296</v>
-      </c>
+      <c r="G11" s="31"/>
       <c r="I11" s="11">
         <v>9</v>
       </c>
@@ -2343,9 +2319,7 @@
       <c r="F12" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="G12" s="31">
-        <v>0.00626157407407408</v>
-      </c>
+      <c r="G12" s="31"/>
       <c r="I12" s="11">
         <v>10</v>
       </c>
@@ -2379,9 +2353,7 @@
       <c r="F13" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G13" s="31">
-        <v>0.00631944444444444</v>
-      </c>
+      <c r="G13" s="31"/>
       <c r="I13" s="11">
         <v>11</v>
       </c>
@@ -2415,9 +2387,7 @@
       <c r="F14" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="G14" s="31">
-        <v>0.0206828703703704</v>
-      </c>
+      <c r="G14" s="31"/>
       <c r="I14" s="11">
         <v>12</v>
       </c>
@@ -2451,9 +2421,7 @@
       <c r="F15" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="31">
-        <v>0.00958333333333333</v>
-      </c>
+      <c r="G15" s="31"/>
       <c r="I15" s="11">
         <v>13</v>
       </c>
@@ -2487,9 +2455,7 @@
       <c r="F16" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G16" s="31">
-        <v>0.00667824074074074</v>
-      </c>
+      <c r="G16" s="31"/>
       <c r="I16" s="11">
         <v>14</v>
       </c>
@@ -2523,9 +2489,7 @@
       <c r="F17" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G17" s="31">
-        <v>0.009375</v>
-      </c>
+      <c r="G17" s="31"/>
       <c r="I17" s="11">
         <v>15</v>
       </c>
@@ -2663,9 +2627,7 @@
       <c r="F21" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="G21" s="13">
-        <v>0.00505787037037037</v>
-      </c>
+      <c r="G21" s="13"/>
       <c r="I21" s="11">
         <v>19</v>
       </c>
@@ -2699,9 +2661,7 @@
       <c r="F22" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="G22" s="13">
-        <v>0.00530092592592593</v>
-      </c>
+      <c r="G22" s="13"/>
       <c r="I22" s="11">
         <v>20</v>
       </c>
@@ -2735,9 +2695,7 @@
       <c r="F23" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G23" s="13">
-        <v>0.00947916666666667</v>
-      </c>
+      <c r="G23" s="13"/>
       <c r="I23" s="11">
         <v>21</v>
       </c>
@@ -2771,9 +2729,7 @@
       <c r="F24" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="G24" s="13">
-        <v>0.00793981481481482</v>
-      </c>
+      <c r="G24" s="13"/>
       <c r="K24" s="8">
         <f>SUM(K6:K23)</f>
         <v>0.525243055555556</v>
@@ -2802,9 +2758,7 @@
       <c r="F25" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="G25" s="13">
-        <v>0.0127083333333333</v>
-      </c>
+      <c r="G25" s="13"/>
       <c r="M25" s="3">
         <v>23</v>
       </c>
@@ -2829,9 +2783,7 @@
       <c r="F26" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="G26" s="13">
-        <v>0.00966435185185185</v>
-      </c>
+      <c r="G26" s="13"/>
       <c r="M26" s="3">
         <v>24</v>
       </c>
@@ -2856,9 +2808,7 @@
       <c r="F27" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="G27" s="13">
-        <v>0.0116203703703704</v>
-      </c>
+      <c r="G27" s="13"/>
       <c r="M27" s="3">
         <v>25</v>
       </c>
@@ -2883,9 +2833,7 @@
       <c r="F28" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="G28" s="13">
-        <v>0.0114699074074074</v>
-      </c>
+      <c r="G28" s="13"/>
       <c r="M28" s="3">
         <v>26</v>
       </c>
@@ -2910,9 +2858,7 @@
       <c r="F29" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="G29" s="13">
-        <v>0.0101967592592593</v>
-      </c>
+      <c r="G29" s="13"/>
       <c r="M29" s="3">
         <v>27</v>
       </c>
@@ -2937,9 +2883,7 @@
       <c r="F30" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="G30" s="13">
-        <v>0.0144328703703704</v>
-      </c>
+      <c r="G30" s="13"/>
       <c r="M30" s="3">
         <v>28</v>
       </c>
@@ -2964,9 +2908,7 @@
       <c r="F31" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="G31" s="13">
-        <v>0.00649305555555556</v>
-      </c>
+      <c r="G31" s="13"/>
       <c r="M31" s="3">
         <v>29</v>
       </c>
@@ -2991,9 +2933,7 @@
       <c r="F32" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="G32" s="13">
-        <v>0.00626157407407408</v>
-      </c>
+      <c r="G32" s="13"/>
       <c r="M32" s="3">
         <v>30</v>
       </c>
@@ -3312,7 +3252,7 @@
       </c>
       <c r="G47" s="8">
         <f>SUM(G3:G46)</f>
-        <v>0.384988425925926</v>
+        <v>0.121157407407407</v>
       </c>
     </row>
     <row r="48" spans="1:15">

--- a/빅분기 실기 자료/eduatoz/EduAtoz_빅분기_실기_230604.xlsx
+++ b/빅분기 실기 자료/eduatoz/EduAtoz_빅분기_실기_230604.xlsx
@@ -793,13 +793,6 @@
       <color theme="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
       <sz val="11.0"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -810,6 +803,13 @@
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
       <color theme="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
     </font>
   </fonts>
   <fills count="38">
@@ -1492,7 +1492,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9643745" y="7145655"/>
+          <a:off x="9671685" y="7163435"/>
           <a:ext cx="463550" cy="237490"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -1571,8 +1571,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4048124" y="6991350"/>
-          <a:ext cx="1480186" cy="239395"/>
+          <a:off x="4076065" y="7009130"/>
+          <a:ext cx="1480185" cy="239395"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:solidFill>
@@ -1923,10 +1923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
@@ -1934,10 +1934,9 @@
     <col min="2" max="2" width="65.57643018" customWidth="1" outlineLevel="0"/>
     <col min="6" max="6" width="50.29071317" customWidth="1" outlineLevel="0"/>
     <col min="10" max="10" width="57.86214338" customWidth="1" outlineLevel="0"/>
-    <col min="14" max="14" width="44.00499998" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27.000000" customHeight="1">
+    <row r="1" spans="1:11" ht="27.000000" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>73</v>
       </c>
@@ -1953,13 +1952,8 @@
       </c>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
-      <c r="M1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="6" t="s">
         <v>35</v>
       </c>
@@ -1987,17 +1981,8 @@
       <c r="K2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2023,15 +2008,8 @@
       <c r="K3" s="10">
         <v>0.0547569444444445</v>
       </c>
-      <c r="M3" s="3">
-        <v>1</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -2057,15 +2035,8 @@
       <c r="K4" s="10">
         <v>0.0543402777777778</v>
       </c>
-      <c r="M4" s="3">
-        <v>2</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4" s="4"/>
-    </row>
-    <row r="5" spans="1:15">
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -2091,15 +2062,8 @@
       <c r="K5" s="10">
         <v>0.0513194444444444</v>
       </c>
-      <c r="M5" s="3">
-        <v>3</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="1:15">
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -2125,15 +2089,8 @@
       <c r="K6" s="13">
         <v>0.0399768518518519</v>
       </c>
-      <c r="M6" s="3">
-        <v>4</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="1:15">
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -2159,15 +2116,8 @@
       <c r="K7" s="13">
         <v>0.0390740740740741</v>
       </c>
-      <c r="M7" s="3">
-        <v>5</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="O7" s="4"/>
-    </row>
-    <row r="8" spans="1:15">
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -2193,15 +2143,8 @@
       <c r="K8" s="13">
         <v>0.0487962962962963</v>
       </c>
-      <c r="M8" s="3">
-        <v>6</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O8" s="4"/>
-    </row>
-    <row r="9" spans="1:15">
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -2227,15 +2170,8 @@
       <c r="K9" s="13">
         <v>0.0372569444444444</v>
       </c>
-      <c r="M9" s="3">
-        <v>7</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O9" s="4"/>
-    </row>
-    <row r="10" spans="1:15">
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -2261,15 +2197,8 @@
       <c r="K10" s="13">
         <v>0.050162037037037</v>
       </c>
-      <c r="M10" s="3">
-        <v>8</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="1:15">
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -2295,15 +2224,8 @@
       <c r="K11" s="13">
         <v>0.00606481481481482</v>
       </c>
-      <c r="M11" s="3">
-        <v>9</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O11" s="4"/>
-    </row>
-    <row r="12" spans="1:15">
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -2329,15 +2251,8 @@
       <c r="K12" s="13">
         <v>0.033287037037037</v>
       </c>
-      <c r="M12" s="3">
-        <v>10</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="4"/>
-    </row>
-    <row r="13" spans="1:15">
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -2363,15 +2278,8 @@
       <c r="K13" s="13">
         <v>0.0496759259259259</v>
       </c>
-      <c r="M13" s="3">
-        <v>11</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O13" s="4"/>
-    </row>
-    <row r="14" spans="1:15">
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -2397,15 +2305,8 @@
       <c r="K14" s="13">
         <v>0.0166435185185185</v>
       </c>
-      <c r="M14" s="3">
-        <v>12</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O14" s="4"/>
-    </row>
-    <row r="15" spans="1:15">
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -2431,15 +2332,8 @@
       <c r="K15" s="13">
         <v>0.00930555555555556</v>
       </c>
-      <c r="M15" s="3">
-        <v>13</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O15" s="4"/>
-    </row>
-    <row r="16" spans="1:15">
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -2465,15 +2359,8 @@
       <c r="K16" s="13">
         <v>0.0102430555555556</v>
       </c>
-      <c r="M16" s="3">
-        <v>14</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O16" s="4"/>
-    </row>
-    <row r="17" spans="1:15">
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -2499,15 +2386,8 @@
       <c r="K17" s="13">
         <v>0.00533564814814815</v>
       </c>
-      <c r="M17" s="3">
-        <v>15</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O17" s="4"/>
-    </row>
-    <row r="18" spans="1:15">
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -2535,15 +2415,8 @@
       <c r="K18" s="13">
         <v>0.0206365740740741</v>
       </c>
-      <c r="M18" s="3">
-        <v>16</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O18" s="4"/>
-    </row>
-    <row r="19" spans="1:15">
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -2569,15 +2442,8 @@
       <c r="K19" s="13">
         <v>0.0243055555555556</v>
       </c>
-      <c r="M19" s="3">
-        <v>17</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O19" s="4"/>
-    </row>
-    <row r="20" spans="1:15">
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -2603,15 +2469,8 @@
       <c r="K20" s="13">
         <v>0.0550462962962963</v>
       </c>
-      <c r="M20" s="3">
-        <v>18</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O20" s="4"/>
-    </row>
-    <row r="21" spans="1:15">
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -2637,15 +2496,8 @@
       <c r="K21" s="13">
         <v>0.00655092592592593</v>
       </c>
-      <c r="M21" s="3">
-        <v>19</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O21" s="4"/>
-    </row>
-    <row r="22" spans="1:15">
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -2671,15 +2523,8 @@
       <c r="K22" s="13">
         <v>0.00581018518518519</v>
       </c>
-      <c r="M22" s="3">
-        <v>20</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O22" s="4"/>
-    </row>
-    <row r="23" spans="1:15">
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -2705,15 +2550,8 @@
       <c r="K23" s="13">
         <v>0.0670717592592593</v>
       </c>
-      <c r="M23" s="3">
-        <v>21</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O23" s="4"/>
-    </row>
-    <row r="24" spans="1:15">
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -2734,15 +2572,8 @@
         <f>SUM(K6:K23)</f>
         <v>0.525243055555556</v>
       </c>
-      <c r="M24" s="3">
-        <v>22</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O24" s="4"/>
-    </row>
-    <row r="25" spans="1:15">
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -2759,15 +2590,8 @@
         <v>146</v>
       </c>
       <c r="G25" s="13"/>
-      <c r="M25" s="3">
-        <v>23</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O25" s="4"/>
-    </row>
-    <row r="26" spans="1:15">
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -2784,15 +2608,8 @@
         <v>147</v>
       </c>
       <c r="G26" s="13"/>
-      <c r="M26" s="3">
-        <v>24</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O26" s="4"/>
-    </row>
-    <row r="27" spans="1:15">
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -2809,15 +2626,8 @@
         <v>148</v>
       </c>
       <c r="G27" s="13"/>
-      <c r="M27" s="3">
-        <v>25</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="O27" s="4"/>
-    </row>
-    <row r="28" spans="1:15">
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -2834,15 +2644,8 @@
         <v>149</v>
       </c>
       <c r="G28" s="13"/>
-      <c r="M28" s="3">
-        <v>26</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O28" s="4"/>
-    </row>
-    <row r="29" spans="1:15">
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -2859,15 +2662,8 @@
         <v>150</v>
       </c>
       <c r="G29" s="13"/>
-      <c r="M29" s="3">
-        <v>27</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O29" s="4"/>
-    </row>
-    <row r="30" spans="1:15">
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -2884,15 +2680,8 @@
         <v>151</v>
       </c>
       <c r="G30" s="13"/>
-      <c r="M30" s="3">
-        <v>28</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O30" s="4"/>
-    </row>
-    <row r="31" spans="1:15">
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -2909,15 +2698,8 @@
         <v>157</v>
       </c>
       <c r="G31" s="13"/>
-      <c r="M31" s="3">
-        <v>29</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O31" s="4"/>
-    </row>
-    <row r="32" spans="1:15">
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -2934,15 +2716,8 @@
         <v>152</v>
       </c>
       <c r="G32" s="13"/>
-      <c r="M32" s="3">
-        <v>30</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O32" s="4"/>
-    </row>
-    <row r="33" spans="1:15">
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -2958,18 +2733,9 @@
       <c r="F33" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="G33" s="13">
-        <v>0.00741898148148148</v>
-      </c>
-      <c r="M33" s="3">
-        <v>31</v>
-      </c>
-      <c r="N33" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O33" s="4"/>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -2985,18 +2751,9 @@
       <c r="F34" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G34" s="13">
-        <v>0.00777777777777778</v>
-      </c>
-      <c r="M34" s="3">
-        <v>32</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O34" s="4"/>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -3012,15 +2769,9 @@
       <c r="F35" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="G35" s="13">
-        <v>0.0134722222222222</v>
-      </c>
-      <c r="O35" s="8">
-        <f>SUM(O3:O34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -3036,11 +2787,9 @@
       <c r="F36" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="G36" s="13">
-        <v>0.00554398148148148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -3056,11 +2805,9 @@
       <c r="F37" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="G37" s="2">
-        <v>0.00436342592592593</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -3076,11 +2823,9 @@
       <c r="F38" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="G38" s="2">
-        <v>0.00605324074074074</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -3096,11 +2841,9 @@
       <c r="F39" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="G39" s="2">
-        <v>0.0111921296296296</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -3116,11 +2859,9 @@
       <c r="F40" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="G40" s="2">
-        <v>0.010162037037037</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -3136,11 +2877,9 @@
       <c r="F41" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="G41" s="2">
-        <v>0.00586805555555555</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -3160,7 +2899,7 @@
         <v>0.0121412037037037</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:7">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -3180,7 +2919,7 @@
         <v>0.0130555555555556</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:7">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -3200,7 +2939,7 @@
         <v>0.0108912037037037</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:7">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -3220,7 +2959,7 @@
         <v>0.00538194444444445</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:7">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -3240,7 +2979,7 @@
         <v>0.00783564814814815</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:7">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -3252,10 +2991,10 @@
       </c>
       <c r="G47" s="8">
         <f>SUM(G3:G46)</f>
-        <v>0.121157407407407</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>0.0493055555555556</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -3328,11 +3067,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>

--- a/빅분기 실기 자료/eduatoz/EduAtoz_빅분기_실기_230604.xlsx
+++ b/빅분기 실기 자료/eduatoz/EduAtoz_빅분기_실기_230604.xlsx
@@ -793,6 +793,13 @@
       <color theme="0"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -803,13 +810,6 @@
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
       <color theme="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
     </font>
   </fonts>
   <fills count="38">
@@ -1472,85 +1472,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2889250</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>170815</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>27305</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="직사각형 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9671685" y="7163435"/>
-          <a:ext cx="463550" cy="237490"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect"/>
-        <a:solidFill>
-          <a:srgbClr val="C00000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" vertOverflow="clip" horzOverflow="clip">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="나눔바른펜"/>
-              <a:ea typeface="나눔바른펜"/>
-            </a:rPr>
-            <a:t>23년 6월 5일 추가 </a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:latin typeface="나눔바른펜"/>
-            <a:ea typeface="나눔바른펜"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2884805</xdr:colOff>
       <xdr:row>36</xdr:row>
@@ -1571,8 +1492,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4076065" y="7009130"/>
-          <a:ext cx="1480185" cy="239395"/>
+          <a:off x="4048124" y="6991350"/>
+          <a:ext cx="1480186" cy="239395"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:solidFill>
@@ -1923,37 +1844,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A2" tabSelected="1" zoomScale="60" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
   <cols>
     <col min="2" max="2" width="65.57643018" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" width="50.29071317" customWidth="1" outlineLevel="0"/>
-    <col min="10" max="10" width="57.86214338" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="57.86214338" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27.000000" customHeight="1">
+    <row r="1" spans="1:7" ht="27.000000" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="E1" s="7" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
-      <c r="I1" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="6" t="s">
         <v>35</v>
       </c>
@@ -1972,1110 +1887,610 @@
       <c r="G2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>95</v>
+      <c r="B3" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="C3" s="2">
-        <v>0.0140625</v>
-      </c>
-      <c r="E3" s="3">
+        <v>0.00741898148148148</v>
+      </c>
+      <c r="E3" s="7">
         <v>1</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="G3" s="30"/>
-      <c r="I3" s="7">
-        <v>1</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="K3" s="10">
+      <c r="G3" s="10">
         <v>0.0547569444444445</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>96</v>
+      <c r="B4" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="C4" s="2">
-        <v>0.00472222222222222</v>
-      </c>
-      <c r="E4" s="3">
+        <v>0.0134606481481481</v>
+      </c>
+      <c r="E4" s="7">
         <v>2</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="G4" s="30"/>
-      <c r="I4" s="7">
-        <v>2</v>
-      </c>
-      <c r="J4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="K4" s="10">
+      <c r="G4" s="10">
         <v>0.0543402777777778</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>97</v>
+      <c r="B5" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="C5" s="2">
-        <v>0.0133449074074074</v>
-      </c>
-      <c r="E5" s="3">
+        <v>0.0111226851851852</v>
+      </c>
+      <c r="E5" s="7">
         <v>3</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="30"/>
-      <c r="I5" s="7">
-        <v>3</v>
-      </c>
-      <c r="J5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="K5" s="10">
+      <c r="G5" s="10">
         <v>0.0513194444444444</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>98</v>
+      <c r="B6" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="C6" s="2">
-        <v>0.00475694444444445</v>
-      </c>
-      <c r="E6" s="3">
+        <v>0.0126273148148148</v>
+      </c>
+      <c r="E6" s="11">
         <v>4</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="G6" s="30"/>
-      <c r="I6" s="11">
-        <v>4</v>
-      </c>
-      <c r="J6" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="K6" s="13">
+      <c r="G6" s="13">
         <v>0.0399768518518519</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>99</v>
+      <c r="B7" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="C7" s="2">
-        <v>0.0169560185185185</v>
-      </c>
-      <c r="E7" s="3">
+        <v>0.00712962962962963</v>
+      </c>
+      <c r="E7" s="11">
         <v>5</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G7" s="30"/>
-      <c r="I7" s="11">
-        <v>5</v>
-      </c>
-      <c r="J7" s="12" t="s">
+      <c r="F7" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="K7" s="13">
+      <c r="G7" s="13">
         <v>0.0390740740740741</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:7">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>100</v>
+      <c r="B8" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="C8" s="2">
-        <v>0.013599537037037</v>
-      </c>
-      <c r="E8" s="3">
+        <v>0.00710648148148148</v>
+      </c>
+      <c r="E8" s="11">
         <v>6</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="G8" s="30"/>
-      <c r="I8" s="11">
-        <v>6</v>
-      </c>
-      <c r="J8" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="K8" s="13">
+      <c r="G8" s="13">
         <v>0.0487962962962963</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:7">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2">
-        <v>0.00998842592592593</v>
-      </c>
-      <c r="E9" s="3">
+        <v>0.0106018518518519</v>
+      </c>
+      <c r="E9" s="11">
         <v>7</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" s="30"/>
-      <c r="I9" s="11">
-        <v>7</v>
-      </c>
-      <c r="J9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="K9" s="13">
+      <c r="G9" s="13">
         <v>0.0372569444444444</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:7">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C10" s="2">
-        <v>0.00861111111111111</v>
+        <v>0.0249884259259259</v>
       </c>
       <c r="E10" s="11">
         <v>8</v>
       </c>
-      <c r="F10" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="G10" s="31"/>
-      <c r="I10" s="11">
-        <v>8</v>
-      </c>
-      <c r="J10" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="K10" s="13">
+      <c r="G10" s="13">
         <v>0.050162037037037</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:7">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2">
-        <v>0.0118518518518519</v>
+        <v>0.00957175925925926</v>
       </c>
       <c r="E11" s="11">
         <v>9</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" s="31"/>
-      <c r="I11" s="11">
-        <v>9</v>
-      </c>
-      <c r="J11" s="12" t="s">
+      <c r="F11" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="K11" s="13">
+      <c r="G11" s="13">
         <v>0.00606481481481482</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:7">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2">
-        <v>0.0139699074074074</v>
+        <v>0.012349537037037</v>
       </c>
       <c r="E12" s="11">
         <v>10</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G12" s="31"/>
-      <c r="I12" s="11">
-        <v>10</v>
-      </c>
-      <c r="J12" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="K12" s="13">
+      <c r="G12" s="13">
         <v>0.033287037037037</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:7">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>105</v>
+      <c r="B13" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="C13" s="2">
-        <v>0.00653935185185185</v>
+        <v>0.0116666666666667</v>
       </c>
       <c r="E13" s="11">
         <v>11</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G13" s="31"/>
-      <c r="I13" s="11">
-        <v>11</v>
-      </c>
-      <c r="J13" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="K13" s="13">
+      <c r="G13" s="13">
         <v>0.0496759259259259</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:7">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>106</v>
+      <c r="B14" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="C14" s="2">
-        <v>0.00954861111111111</v>
+        <v>0.0100578703703704</v>
       </c>
       <c r="E14" s="11">
         <v>12</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="G14" s="31"/>
-      <c r="I14" s="11">
-        <v>12</v>
-      </c>
-      <c r="J14" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="K14" s="13">
+      <c r="G14" s="13">
         <v>0.0166435185185185</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:7">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>107</v>
+      <c r="B15" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="C15" s="2">
-        <v>0.0137615740740741</v>
+        <v>0.0132638888888889</v>
       </c>
       <c r="E15" s="11">
         <v>13</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="G15" s="31"/>
-      <c r="I15" s="11">
-        <v>13</v>
-      </c>
-      <c r="J15" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="K15" s="13">
+      <c r="G15" s="13">
         <v>0.00930555555555556</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:7">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>108</v>
+      <c r="B16" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="C16" s="2">
-        <v>0.0075</v>
+        <v>0.0149421296296296</v>
       </c>
       <c r="E16" s="11">
         <v>14</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="G16" s="31"/>
-      <c r="I16" s="11">
-        <v>14</v>
-      </c>
-      <c r="J16" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="K16" s="13">
+      <c r="G16" s="13">
         <v>0.0102430555555556</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:7">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>109</v>
+      <c r="B17" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="C17" s="2">
-        <v>0.00672453703703704</v>
+        <v>0.00518518518518519</v>
       </c>
       <c r="E17" s="11">
         <v>15</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="G17" s="31"/>
-      <c r="I17" s="11">
-        <v>15</v>
-      </c>
-      <c r="J17" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="K17" s="13">
+      <c r="G17" s="13">
         <v>0.00533564814814815</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:7">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>110</v>
+      <c r="B18" s="20" t="s">
+        <v>74</v>
       </c>
       <c r="C18" s="2">
-        <v>0.00741898148148148</v>
+        <v>0.0062037037037037</v>
       </c>
       <c r="E18" s="11">
         <v>16</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="I18" s="11">
-        <v>16</v>
-      </c>
-      <c r="J18" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="K18" s="13">
+      <c r="G18" s="13">
         <v>0.0206365740740741</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:7">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>111</v>
+      <c r="B19" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="C19" s="2">
-        <v>0.0134606481481481</v>
+        <v>0.0102893518518519</v>
       </c>
       <c r="E19" s="11">
         <v>17</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="I19" s="11">
-        <v>17</v>
-      </c>
-      <c r="J19" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="K19" s="13">
+      <c r="G19" s="13">
         <v>0.0243055555555556</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:7">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>112</v>
+      <c r="B20" s="20" t="s">
+        <v>76</v>
       </c>
       <c r="C20" s="2">
-        <v>0.0111226851851852</v>
+        <v>0.0107638888888889</v>
       </c>
       <c r="E20" s="11">
         <v>18</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G20" s="13"/>
-      <c r="I20" s="11">
-        <v>18</v>
-      </c>
-      <c r="J20" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="K20" s="13">
+      <c r="G20" s="13">
         <v>0.0550462962962963</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:7">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>113</v>
+      <c r="B21" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="C21" s="2">
-        <v>0.0126273148148148</v>
+        <v>0.0081712962962963</v>
       </c>
       <c r="E21" s="11">
         <v>19</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="G21" s="13"/>
-      <c r="I21" s="11">
-        <v>19</v>
-      </c>
-      <c r="J21" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="K21" s="13">
+      <c r="G21" s="13">
         <v>0.00655092592592593</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:7">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>114</v>
+      <c r="B22" s="20" t="s">
+        <v>78</v>
       </c>
       <c r="C22" s="2">
-        <v>0.00712962962962963</v>
+        <v>0.00886574074074074</v>
       </c>
       <c r="E22" s="11">
         <v>20</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" s="13"/>
-      <c r="I22" s="11">
-        <v>20</v>
-      </c>
-      <c r="J22" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="K22" s="13">
+      <c r="G22" s="13">
         <v>0.00581018518518519</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:7">
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>115</v>
+      <c r="B23" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="C23" s="2">
-        <v>0.00710648148148148</v>
+        <v>0.0108912037037037</v>
       </c>
       <c r="E23" s="11">
         <v>21</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="G23" s="13"/>
-      <c r="I23" s="11">
-        <v>21</v>
-      </c>
-      <c r="J23" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="K23" s="13">
+      <c r="G23" s="13">
         <v>0.0670717592592593</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:7">
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>116</v>
+      <c r="B24" s="20" t="s">
+        <v>80</v>
       </c>
       <c r="C24" s="2">
-        <v>0.0106018518518519</v>
-      </c>
-      <c r="E24" s="11">
-        <v>22</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="G24" s="13"/>
-      <c r="K24" s="8">
-        <f>SUM(K6:K23)</f>
+        <v>0.00680555555555556</v>
+      </c>
+      <c r="G24" s="8">
+        <f>SUM(G6:G23)</f>
         <v>0.525243055555556</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:7">
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>117</v>
+      <c r="B25" s="20" t="s">
+        <v>81</v>
       </c>
       <c r="C25" s="2">
-        <v>0.0249884259259259</v>
-      </c>
-      <c r="E25" s="11">
-        <v>23</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="1:11">
+        <v>0.0150347222222222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>118</v>
+      <c r="B26" s="20" t="s">
+        <v>82</v>
       </c>
       <c r="C26" s="2">
-        <v>0.00957175925925926</v>
-      </c>
-      <c r="E26" s="11">
-        <v>24</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="1:11">
+        <v>0.00732638888888889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>119</v>
+      <c r="B27" s="20" t="s">
+        <v>83</v>
       </c>
       <c r="C27" s="2">
-        <v>0.012349537037037</v>
-      </c>
-      <c r="E27" s="11">
-        <v>25</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G27" s="13"/>
-    </row>
-    <row r="28" spans="1:11">
+        <v>0.0126851851851852</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="C28" s="2">
-        <v>0.0116666666666667</v>
-      </c>
-      <c r="E28" s="11">
-        <v>26</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="1:11">
+        <v>0.0129282407407407</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="3">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="C29" s="2">
-        <v>0.0100578703703704</v>
-      </c>
-      <c r="E29" s="11">
-        <v>27</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30" spans="1:11">
+        <v>0.0132638888888889</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="C30" s="2">
-        <v>0.0132638888888889</v>
-      </c>
-      <c r="E30" s="11">
-        <v>28</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="1:11">
+        <v>0.0103703703703704</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="3">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="C31" s="2">
-        <v>0.0149421296296296</v>
-      </c>
-      <c r="E31" s="11">
-        <v>29</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="32" spans="1:11">
+        <v>0.0154861111111111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="C32" s="2">
-        <v>0.00518518518518519</v>
-      </c>
-      <c r="E32" s="11">
-        <v>30</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="G32" s="13"/>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.0128240740740741</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="20" t="s">
-        <v>74</v>
+      <c r="B33" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="C33" s="2">
-        <v>0.0062037037037037</v>
-      </c>
-      <c r="E33" s="11">
-        <v>31</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.0104976851851852</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="20" t="s">
-        <v>75</v>
+      <c r="B34" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="C34" s="2">
-        <v>0.0102893518518519</v>
-      </c>
-      <c r="E34" s="11">
-        <v>32</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="G34" s="13"/>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.00646990740740741</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="20" t="s">
-        <v>76</v>
+      <c r="B35" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="C35" s="2">
-        <v>0.0107638888888889</v>
-      </c>
-      <c r="E35" s="11">
-        <v>33</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="G35" s="13"/>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.00568287037037037</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="3">
         <v>34</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C36" s="2">
-        <v>0.0081712962962963</v>
-      </c>
-      <c r="E36" s="11">
-        <v>34</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="G36" s="13"/>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.0135069444444444</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="3">
         <v>35</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C37" s="2">
-        <v>0.00886574074074074</v>
-      </c>
-      <c r="E37" s="21">
-        <v>35</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7">
+        <v>0.00679398148148148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="3">
         <v>36</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C38" s="2">
-        <v>0.0108912037037037</v>
-      </c>
-      <c r="E38" s="21">
-        <v>36</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="3">
-        <v>37</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0.00680555555555556</v>
-      </c>
-      <c r="E39" s="21">
-        <v>37</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="3">
-        <v>38</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0.0150347222222222</v>
-      </c>
-      <c r="E40" s="21">
-        <v>38</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="3">
-        <v>39</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0.00732638888888889</v>
-      </c>
-      <c r="E41" s="21">
-        <v>39</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3">
-        <v>40</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="2">
-        <v>0.0126851851851852</v>
-      </c>
-      <c r="E42" s="21">
-        <v>40</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="G42" s="2">
-        <v>0.0121412037037037</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="3">
-        <v>41</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="2">
-        <v>0.0129282407407407</v>
-      </c>
-      <c r="E43" s="21">
-        <v>41</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="G43" s="2">
-        <v>0.0130555555555556</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="3">
-        <v>42</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0.0132638888888889</v>
-      </c>
-      <c r="E44" s="21">
-        <v>42</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="G44" s="2">
-        <v>0.0108912037037037</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="3">
-        <v>43</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0.0103703703703704</v>
-      </c>
-      <c r="E45" s="21">
-        <v>43</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="G45" s="2">
-        <v>0.00538194444444445</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="3">
-        <v>44</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="2">
-        <v>0.0154861111111111</v>
-      </c>
-      <c r="E46" s="21">
-        <v>44</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="G46" s="2">
-        <v>0.00783564814814815</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="3">
-        <v>45</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="2">
-        <v>0.0128240740740741</v>
-      </c>
-      <c r="G47" s="8">
-        <f>SUM(G3:G46)</f>
-        <v>0.0493055555555556</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="3">
-        <v>46</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="2">
-        <v>0.0104976851851852</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="3">
-        <v>47</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="2">
-        <v>0.00646990740740741</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="3">
-        <v>48</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C50" s="2">
-        <v>0.00568287037037037</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="3">
-        <v>49</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C51" s="2">
-        <v>0.0135069444444444</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="3">
-        <v>50</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" s="2">
-        <v>0.00679398148148148</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="3">
-        <v>51</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" s="2">
         <v>0.0109722222222222</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="C54" s="8">
-        <f>SUM(C3:C53)</f>
-        <v>0.543263888888889</v>
+    <row r="39" spans="1:3">
+      <c r="C39" s="8">
+        <f>SUM(C3:C38)</f>
+        <v>0.387326388888889</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/빅분기 실기 자료/eduatoz/EduAtoz_빅분기_실기_230604.xlsx
+++ b/빅분기 실기 자료/eduatoz/EduAtoz_빅분기_실기_230604.xlsx
@@ -608,7 +608,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="11.0"/>
       <name val="Calibri"/>
@@ -789,12 +789,6 @@
     <font>
       <b/>
       <sz val="11.0"/>
-      <name val="나눔바른펜"/>
-      <color theme="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
       <color theme="1"/>
@@ -808,7 +802,7 @@
     <font>
       <b/>
       <sz val="11.0"/>
-      <name val="맑은 고딕"/>
+      <name val="나눔바른펜"/>
       <color theme="0"/>
     </font>
   </fonts>
@@ -1492,8 +1486,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4048124" y="6991350"/>
-          <a:ext cx="1480186" cy="239395"/>
+          <a:off x="4076065" y="7009130"/>
+          <a:ext cx="1480185" cy="239395"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:solidFill>
@@ -1846,8 +1840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" tabSelected="1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
@@ -1895,9 +1889,7 @@
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="2">
-        <v>0.00741898148148148</v>
-      </c>
+      <c r="C3" s="2"/>
       <c r="E3" s="7">
         <v>1</v>
       </c>
@@ -1915,9 +1907,7 @@
       <c r="B4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="2">
-        <v>0.0134606481481481</v>
-      </c>
+      <c r="C4" s="2"/>
       <c r="E4" s="7">
         <v>2</v>
       </c>
@@ -1935,9 +1925,7 @@
       <c r="B5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="2">
-        <v>0.0111226851851852</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="E5" s="7">
         <v>3</v>
       </c>
@@ -1955,9 +1943,7 @@
       <c r="B6" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="2">
-        <v>0.0126273148148148</v>
-      </c>
+      <c r="C6" s="2"/>
       <c r="E6" s="11">
         <v>4</v>
       </c>
@@ -1975,9 +1961,7 @@
       <c r="B7" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="2">
-        <v>0.00712962962962963</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="E7" s="11">
         <v>5</v>
       </c>
@@ -1995,9 +1979,7 @@
       <c r="B8" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="2">
-        <v>0.00710648148148148</v>
-      </c>
+      <c r="C8" s="2"/>
       <c r="E8" s="11">
         <v>6</v>
       </c>
@@ -2480,7 +2462,7 @@
     <row r="39" spans="1:3">
       <c r="C39" s="8">
         <f>SUM(C3:C38)</f>
-        <v>0.387326388888889</v>
+        <v>0.328460648148148</v>
       </c>
     </row>
   </sheetData>
